--- a/Problems1-24-Autumn.xlsx
+++ b/Problems1-24-Autumn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computer\Desktop\DBMS\DBMS24Autumn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/MIPT/Data base/DB_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF3295A-90D4-460A-BBCE-682F07449BC1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5E4ABA-5F3E-BE42-850E-505EC287231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Var2" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="180">
   <si>
     <t>}</t>
   </si>
@@ -550,6 +550,21 @@
   </si>
   <si>
     <t>С помощью какого скрипта можно посмотреть зарплаты аниматоров, развлекающих клиентов летом?</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Объединение</t>
+  </si>
+  <si>
+    <t>Пересечение</t>
+  </si>
+  <si>
+    <t>R2-R1</t>
+  </si>
+  <si>
+    <t>R1-R2</t>
   </si>
 </sst>
 </file>
@@ -559,7 +574,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +613,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -642,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -656,21 +672,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -991,27 +999,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C63A9C-52B5-48DD-AFC1-6117206D7AE1}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:U194"/>
+  <dimension ref="A2:AR194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O173" sqref="O173"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AH30" sqref="AH30:AI36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.21875" customWidth="1"/>
-    <col min="6" max="6" width="3.77734375" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1019,15 +1027,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>91</v>
       </c>
@@ -1046,9 +1054,11 @@
       <c r="G5" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>91</v>
       </c>
@@ -1067,9 +1077,11 @@
       <c r="G6" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>91</v>
       </c>
@@ -1088,9 +1100,11 @@
       <c r="G7" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>91</v>
       </c>
@@ -1109,9 +1123,11 @@
       <c r="G8" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>91</v>
       </c>
@@ -1130,9 +1146,11 @@
       <c r="G9" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>92</v>
       </c>
@@ -1151,9 +1169,11 @@
       <c r="G10" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>92</v>
       </c>
@@ -1172,9 +1192,11 @@
       <c r="G11" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>92</v>
       </c>
@@ -1193,9 +1215,11 @@
       <c r="G12" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>92</v>
       </c>
@@ -1214,9 +1238,11 @@
       <c r="G13" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>92</v>
       </c>
@@ -1235,9 +1261,11 @@
       <c r="G14" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>92</v>
       </c>
@@ -1256,9 +1284,11 @@
       <c r="G15" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>92</v>
       </c>
@@ -1277,12 +1307,14 @@
       <c r="G16" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="H16" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1290,10 +1322,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="20.399999999999999">
+    <row r="19" spans="1:44" ht="23" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="H21" s="7">
         <v>2</v>
       </c>
@@ -1312,10 +1344,10 @@
       <c r="O21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="8">
         <v>89</v>
       </c>
       <c r="T21" s="8">
@@ -1325,7 +1357,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="H22" s="7">
         <v>15</v>
       </c>
@@ -1344,20 +1376,20 @@
       <c r="O22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="8">
         <v>78</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="T22" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="H23" s="7" t="s">
         <v>102</v>
       </c>
@@ -1376,34 +1408,34 @@
       <c r="O23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q23" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="8">
         <v>5</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="8">
         <v>4</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="U23" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="N24" s="8">
         <v>32</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R24" s="8">
         <v>890</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="N25" s="8">
         <v>109</v>
       </c>
@@ -1411,20 +1443,44 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="N29" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>177</v>
+      </c>
+      <c r="T29" t="s">
+        <v>178</v>
+      </c>
+      <c r="W29" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>178</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="H30" s="7" t="s">
         <v>16</v>
       </c>
@@ -1437,20 +1493,68 @@
       <c r="L30" s="7">
         <v>7</v>
       </c>
+      <c r="N30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="7">
+        <v>15</v>
+      </c>
       <c r="Q30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="7">
+        <v>15</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U30" s="7">
         <v>7</v>
       </c>
-      <c r="R30" s="7">
+      <c r="W30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X30" s="7">
+        <v>34</v>
+      </c>
+      <c r="AB30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC30" s="7">
         <v>12</v>
       </c>
-      <c r="T30" s="7" t="s">
+      <c r="AE30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U30" s="7">
+      <c r="AF30" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="AH30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI30" s="7">
+        <v>12</v>
+      </c>
+      <c r="AK30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL30" s="7">
+        <v>23</v>
+      </c>
+      <c r="AN30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO30" s="7">
+        <v>15</v>
+      </c>
+      <c r="AQ30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR30" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>156</v>
       </c>
@@ -1466,7 +1570,7 @@
       <c r="I31" s="7">
         <v>3</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -1475,29 +1579,77 @@
       <c r="L31" s="7">
         <v>15</v>
       </c>
-      <c r="O31" s="20" t="s">
+      <c r="N31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="7">
+        <v>3</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" s="7">
+        <v>14</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X31" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z31" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="P31" s="20" t="s">
+      <c r="AA31" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="AB31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R31" s="7">
+      <c r="AC31" s="7">
         <v>4</v>
       </c>
-      <c r="S31" s="10" t="s">
+      <c r="AD31" t="s">
         <v>23</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="AE31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U31" s="7">
+      <c r="AF31" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="AH31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI31" s="7">
+        <v>4</v>
+      </c>
+      <c r="AK31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL31" s="7">
+        <v>4</v>
+      </c>
+      <c r="AN31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO31" s="7">
+        <v>3</v>
+      </c>
+      <c r="AQ31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR31" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="H32" s="7" t="s">
         <v>18</v>
       </c>
@@ -1510,20 +1662,44 @@
       <c r="L32" s="7">
         <v>14</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="N32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="7">
+        <v>34</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X32" s="7">
         <v>2</v>
       </c>
-      <c r="R32" s="7">
+      <c r="AB32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="7">
         <v>3</v>
       </c>
-      <c r="T32" s="7" t="s">
+      <c r="AE32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U32" s="7">
+      <c r="AF32" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="AH32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI32" s="7">
+        <v>3</v>
+      </c>
+      <c r="AQ32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR32" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H33" s="7" t="s">
         <v>7</v>
       </c>
@@ -1536,39 +1712,89 @@
       <c r="L33" s="7">
         <v>3</v>
       </c>
-      <c r="Q33" s="7" t="s">
+      <c r="N33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R33" s="7">
+      <c r="AC33" s="7">
         <v>23</v>
       </c>
-      <c r="T33" s="7" t="s">
+      <c r="AE33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U33" s="7">
+      <c r="AF33" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="AH33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI33" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="7">
         <v>2</v>
       </c>
-      <c r="Q34" s="7" t="s">
+      <c r="N34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB34" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="R34" s="7">
+      <c r="AC34" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="AH34" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI34" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="N35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="7">
+        <v>7</v>
+      </c>
+      <c r="AH35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI35" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="N36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="7">
+        <v>14</v>
+      </c>
+      <c r="AH36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI36" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1576,7 +1802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H40" s="7" t="s">
         <v>97</v>
       </c>
@@ -1587,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
         <v>22</v>
       </c>
@@ -1600,20 +1826,20 @@
       <c r="I41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" t="s">
         <v>25</v>
       </c>
       <c r="K41" s="7">
         <v>2</v>
       </c>
-      <c r="L41" s="21" t="s">
+      <c r="L41" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="M41" s="22" t="s">
+      <c r="M41" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H42" s="7" t="s">
         <v>98</v>
       </c>
@@ -1624,17 +1850,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1642,34 +1868,34 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="H50" s="11" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H50" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
         <v>22</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="13">
         <v>45544</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" t="s">
         <v>23</v>
       </c>
       <c r="K51" s="7">
@@ -1679,8 +1905,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="H52" s="18">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H52" s="13">
         <v>45534</v>
       </c>
       <c r="I52" s="7" t="s">
@@ -1693,7 +1919,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K53" s="7">
         <v>1</v>
       </c>
@@ -1701,7 +1927,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -1709,7 +1935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H57" s="7">
         <v>12</v>
       </c>
@@ -1717,7 +1943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H58" s="7">
         <v>11</v>
       </c>
@@ -1725,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F59" t="s">
         <v>22</v>
       </c>
@@ -1738,14 +1964,14 @@
       <c r="I59" s="7">
         <v>11</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" t="s">
         <v>23</v>
       </c>
       <c r="K59" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H60" s="7">
         <v>86</v>
       </c>
@@ -1756,7 +1982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H61" s="7">
         <v>12</v>
       </c>
@@ -1764,7 +1990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H62" s="7">
         <v>9</v>
       </c>
@@ -1772,15 +1998,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="H63" s="16">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H63" s="7">
         <v>56</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I63" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>7</v>
       </c>
@@ -1788,12 +2014,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>8</v>
       </c>
@@ -1801,7 +2027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
         <v>29</v>
       </c>
@@ -1818,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I70" s="7">
         <v>2</v>
       </c>
@@ -1832,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I71" s="7">
         <v>3</v>
       </c>
@@ -1846,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I72" s="7">
         <v>3</v>
       </c>
@@ -1860,7 +2086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G74" t="s">
         <v>30</v>
       </c>
@@ -1877,7 +2103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I75" s="7">
         <v>2</v>
       </c>
@@ -1891,7 +2117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I76" s="7">
         <v>87</v>
       </c>
@@ -1905,7 +2131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I77" s="7">
         <v>2</v>
       </c>
@@ -1919,7 +2145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G79" t="s">
         <v>31</v>
       </c>
@@ -1929,7 +2155,7 @@
       <c r="J79" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K79" s="19"/>
+      <c r="K79" s="14"/>
       <c r="L79" s="8" t="s">
         <v>103</v>
       </c>
@@ -1937,14 +2163,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I80" s="8">
         <v>8</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K80" s="19"/>
+      <c r="K80" s="14"/>
       <c r="L80" s="8" t="s">
         <v>8</v>
       </c>
@@ -1952,14 +2178,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I81" s="8">
         <v>45</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K81" s="19"/>
+      <c r="K81" s="14"/>
       <c r="L81" s="8" t="s">
         <v>165</v>
       </c>
@@ -1967,14 +2193,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I82" s="8">
         <v>4</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K82" s="19"/>
+      <c r="K82" s="14"/>
       <c r="L82" s="8" t="s">
         <v>2</v>
       </c>
@@ -1982,7 +2208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G84" t="s">
         <v>32</v>
       </c>
@@ -1999,7 +2225,7 @@
         <v>9876</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I85" s="7">
         <v>2</v>
       </c>
@@ -2013,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I86" s="7">
         <v>78</v>
       </c>
@@ -2027,7 +2253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I87" s="7">
         <v>4</v>
       </c>
@@ -2041,7 +2267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>9</v>
       </c>
@@ -2049,46 +2275,46 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
-      <c r="I91" s="11" t="s">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I91" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="J91" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="K91" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L91" s="11" t="s">
+      <c r="L91" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M91" s="11" t="s">
+      <c r="M91" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
-      <c r="I92" s="11" t="s">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I92" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J92" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="K92" s="11" t="s">
+      <c r="K92" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="L92" s="11" t="s">
+      <c r="L92" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M92" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I93" s="7" t="s">
         <v>119</v>
       </c>
@@ -2101,11 +2327,11 @@
       <c r="L93" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M93" s="12">
+      <c r="M93" s="10">
         <v>36892</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I94" s="7" t="s">
         <v>120</v>
       </c>
@@ -2118,11 +2344,11 @@
       <c r="L94" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M94" s="12">
+      <c r="M94" s="10">
         <v>39815</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I95" s="7" t="s">
         <v>121</v>
       </c>
@@ -2135,11 +2361,11 @@
       <c r="L95" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M95" s="12">
+      <c r="M95" s="10">
         <v>43833</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I96" s="7" t="s">
         <v>122</v>
       </c>
@@ -2152,11 +2378,11 @@
       <c r="L96" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M96" s="12">
+      <c r="M96" s="10">
         <v>36892</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I97" s="7" t="s">
         <v>123</v>
       </c>
@@ -2169,11 +2395,11 @@
       <c r="L97" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M97" s="12">
+      <c r="M97" s="10">
         <v>42374</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10</v>
       </c>
@@ -2181,61 +2407,61 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F103" t="s">
         <v>29</v>
       </c>
-      <c r="H103" s="11" t="s">
+      <c r="H103" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I103" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J103" s="11" t="s">
+      <c r="J103" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K103" s="11" t="s">
+      <c r="K103" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M103" s="13" t="s">
+      <c r="M103" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N103" s="13" t="s">
+      <c r="N103" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O103" s="13" t="s">
+      <c r="O103" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
-      <c r="H104" s="11" t="s">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H104" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I104" s="11" t="s">
+      <c r="I104" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J104" s="11" t="s">
+      <c r="J104" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="K104" s="11" t="s">
+      <c r="K104" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M104" s="11" t="s">
+      <c r="M104" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="N104" s="13" t="s">
+      <c r="N104" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O104" s="13" t="s">
+      <c r="O104" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H105" s="7" t="s">
         <v>39</v>
       </c>
@@ -2258,7 +2484,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H106" s="7" t="s">
         <v>41</v>
       </c>
@@ -2281,7 +2507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H107" s="7" t="s">
         <v>42</v>
       </c>
@@ -2295,7 +2521,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H108" s="7" t="s">
         <v>43</v>
       </c>
@@ -2309,7 +2535,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H109" s="7" t="s">
         <v>44</v>
       </c>
@@ -2323,52 +2549,52 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
-      <c r="F111" s="19" t="s">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F111" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H111" s="11" t="s">
+      <c r="H111" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I111" s="11" t="s">
+      <c r="I111" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J111" s="11" t="s">
+      <c r="J111" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K111" s="14"/>
-      <c r="M111" s="13" t="s">
+      <c r="K111" s="11"/>
+      <c r="M111" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N111" s="13" t="s">
+      <c r="N111" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O111" s="13" t="s">
+      <c r="O111" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
-      <c r="H112" s="11" t="s">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H112" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I112" s="11" t="s">
+      <c r="I112" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J112" s="11" t="s">
+      <c r="J112" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K112" s="14"/>
-      <c r="M112" s="11" t="s">
+      <c r="K112" s="11"/>
+      <c r="M112" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="N112" s="13" t="s">
+      <c r="N112" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O112" s="13" t="s">
+      <c r="O112" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="6:15">
+    <row r="113" spans="6:15" x14ac:dyDescent="0.2">
       <c r="H113" s="7" t="s">
         <v>39</v>
       </c>
@@ -2378,7 +2604,6 @@
       <c r="J113" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K113" s="15"/>
       <c r="M113" s="7" t="s">
         <v>135</v>
       </c>
@@ -2389,7 +2614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="6:15">
+    <row r="114" spans="6:15" x14ac:dyDescent="0.2">
       <c r="H114" s="7" t="s">
         <v>41</v>
       </c>
@@ -2399,7 +2624,6 @@
       <c r="J114" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K114" s="15"/>
       <c r="M114" s="7" t="s">
         <v>136</v>
       </c>
@@ -2410,7 +2634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="6:15">
+    <row r="115" spans="6:15" x14ac:dyDescent="0.2">
       <c r="H115" s="7" t="s">
         <v>42</v>
       </c>
@@ -2420,9 +2644,8 @@
       <c r="J115" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K115" s="15"/>
-    </row>
-    <row r="116" spans="6:15">
+    </row>
+    <row r="116" spans="6:15" x14ac:dyDescent="0.2">
       <c r="H116" s="7" t="s">
         <v>43</v>
       </c>
@@ -2432,9 +2655,8 @@
       <c r="J116" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K116" s="15"/>
-    </row>
-    <row r="117" spans="6:15">
+    </row>
+    <row r="117" spans="6:15" x14ac:dyDescent="0.2">
       <c r="H117" s="7" t="s">
         <v>44</v>
       </c>
@@ -2444,58 +2666,57 @@
       <c r="J117" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K117" s="15"/>
-    </row>
-    <row r="119" spans="6:15">
-      <c r="F119" s="19" t="s">
+    </row>
+    <row r="119" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F119" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H119" s="11" t="s">
+      <c r="H119" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I119" s="11" t="s">
+      <c r="I119" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J119" s="11" t="s">
+      <c r="J119" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K119" s="11" t="s">
+      <c r="K119" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M119" s="13" t="s">
+      <c r="M119" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N119" s="13" t="s">
+      <c r="N119" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O119" s="13" t="s">
+      <c r="O119" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="6:15">
-      <c r="H120" s="11" t="s">
+    <row r="120" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="H120" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I120" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J120" s="11" t="s">
+      <c r="J120" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K120" s="11" t="s">
+      <c r="K120" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M120" s="11" t="s">
+      <c r="M120" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="N120" s="13" t="s">
+      <c r="N120" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O120" s="13" t="s">
+      <c r="O120" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="6:15">
+    <row r="121" spans="6:15" x14ac:dyDescent="0.2">
       <c r="H121" s="7" t="s">
         <v>39</v>
       </c>
@@ -2518,7 +2739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="6:15">
+    <row r="122" spans="6:15" x14ac:dyDescent="0.2">
       <c r="H122" s="7" t="s">
         <v>41</v>
       </c>
@@ -2541,7 +2762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="6:15">
+    <row r="123" spans="6:15" x14ac:dyDescent="0.2">
       <c r="H123" s="7" t="s">
         <v>42</v>
       </c>
@@ -2555,7 +2776,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="6:15">
+    <row r="124" spans="6:15" x14ac:dyDescent="0.2">
       <c r="H124" s="7" t="s">
         <v>43</v>
       </c>
@@ -2569,7 +2790,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="6:15">
+    <row r="125" spans="6:15" x14ac:dyDescent="0.2">
       <c r="H125" s="7" t="s">
         <v>44</v>
       </c>
@@ -2583,56 +2804,56 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="6:15">
+    <row r="127" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F127" t="s">
         <v>32</v>
       </c>
-      <c r="H127" s="11" t="s">
+      <c r="H127" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I127" s="11" t="s">
+      <c r="I127" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J127" s="11" t="s">
+      <c r="J127" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K127" s="11" t="s">
+      <c r="K127" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M127" s="13" t="s">
+      <c r="M127" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N127" s="13" t="s">
+      <c r="N127" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O127" s="13" t="s">
+      <c r="O127" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="6:15">
-      <c r="H128" s="11" t="s">
+    <row r="128" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="H128" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I128" s="11" t="s">
+      <c r="I128" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J128" s="11" t="s">
+      <c r="J128" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="K128" s="11" t="s">
+      <c r="K128" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M128" s="11" t="s">
+      <c r="M128" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="N128" s="13" t="s">
+      <c r="N128" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O128" s="13" t="s">
+      <c r="O128" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H129" s="7" t="s">
         <v>39</v>
       </c>
@@ -2655,7 +2876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H130" s="7" t="s">
         <v>41</v>
       </c>
@@ -2678,7 +2899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H131" s="7" t="s">
         <v>42</v>
       </c>
@@ -2692,7 +2913,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H132" s="7" t="s">
         <v>43</v>
       </c>
@@ -2706,7 +2927,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H133" s="7" t="s">
         <v>44</v>
       </c>
@@ -2720,56 +2941,56 @@
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
-      <c r="F135" s="19" t="s">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F135" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H135" s="11" t="s">
+      <c r="H135" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I135" s="11" t="s">
+      <c r="I135" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J135" s="11" t="s">
+      <c r="J135" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K135" s="11" t="s">
+      <c r="K135" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M135" s="13" t="s">
+      <c r="M135" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N135" s="13" t="s">
+      <c r="N135" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O135" s="13" t="s">
+      <c r="O135" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
-      <c r="H136" s="11" t="s">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H136" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I136" s="11" t="s">
+      <c r="I136" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J136" s="11" t="s">
+      <c r="J136" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="K136" s="11" t="s">
+      <c r="K136" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M136" s="11" t="s">
+      <c r="M136" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="N136" s="13" t="s">
+      <c r="N136" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O136" s="13" t="s">
+      <c r="O136" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H137" s="7" t="s">
         <v>39</v>
       </c>
@@ -2792,7 +3013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H138" s="7" t="s">
         <v>41</v>
       </c>
@@ -2815,7 +3036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H139" s="7" t="s">
         <v>42</v>
       </c>
@@ -2829,7 +3050,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H140" s="7" t="s">
         <v>43</v>
       </c>
@@ -2843,7 +3064,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H141" s="7" t="s">
         <v>44</v>
       </c>
@@ -2857,7 +3078,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>11</v>
       </c>
@@ -2865,22 +3086,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
-      <c r="H146" s="11" t="s">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H146" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H147" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F148" t="s">
         <v>59</v>
       </c>
@@ -2891,12 +3112,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H149" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>12</v>
       </c>
@@ -2904,36 +3125,36 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="1:20">
-      <c r="H152" s="11" t="s">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H152" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I152" s="11" t="s">
+      <c r="I152" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J152" s="11" t="s">
+      <c r="J152" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="M152" s="11" t="s">
+      <c r="M152" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="N152" s="11" t="s">
+      <c r="N152" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="O152" s="11" t="s">
+      <c r="O152" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="R152" s="13" t="s">
+      <c r="R152" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="S152" s="13" t="s">
+      <c r="S152" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="T152" s="13" t="s">
+      <c r="T152" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H153" s="7" t="s">
         <v>61</v>
       </c>
@@ -2962,7 +3183,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F154" t="s">
         <v>22</v>
       </c>
@@ -3003,7 +3224,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H155" s="7" t="s">
         <v>62</v>
       </c>
@@ -3023,7 +3244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H156" s="7" t="s">
         <v>63</v>
       </c>
@@ -3043,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H157" s="7" t="s">
         <v>64</v>
       </c>
@@ -3062,14 +3283,14 @@
       <c r="O157" s="7">
         <v>1</v>
       </c>
-      <c r="R157" s="11" t="s">
+      <c r="R157" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="S157" s="11" t="s">
+      <c r="S157" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H158" s="7" t="s">
         <v>145</v>
       </c>
@@ -3079,13 +3300,13 @@
       <c r="J158" s="7">
         <v>2</v>
       </c>
-      <c r="M158" s="16" t="s">
+      <c r="M158" s="7" t="s">
         <v>68</v>
       </c>
       <c r="N158" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="O158" s="16">
+      <c r="O158" s="7">
         <v>2</v>
       </c>
       <c r="Q158" t="s">
@@ -3094,11 +3315,11 @@
       <c r="R158" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="S158" s="17">
+      <c r="S158" s="12">
         <v>45627</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H159" s="7" t="s">
         <v>66</v>
       </c>
@@ -3111,11 +3332,11 @@
       <c r="R159" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="S159" s="17">
+      <c r="S159" s="12">
         <v>45047</v>
       </c>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H160" s="7" t="s">
         <v>67</v>
       </c>
@@ -3126,7 +3347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H161" s="7" t="s">
         <v>146</v>
       </c>
@@ -3137,7 +3358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H162" s="7" t="s">
         <v>68</v>
       </c>
@@ -3148,12 +3369,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B164" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
         <v>29</v>
       </c>
@@ -3161,7 +3382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
         <v>30</v>
       </c>
@@ -3169,7 +3390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>31</v>
       </c>
@@ -3177,7 +3398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
         <v>32</v>
       </c>
@@ -3185,7 +3406,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>13</v>
       </c>
@@ -3193,17 +3414,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E176" t="s">
         <v>29</v>
       </c>
@@ -3211,7 +3432,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E177" t="s">
         <v>30</v>
       </c>
@@ -3219,7 +3440,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>14</v>
       </c>
@@ -3227,27 +3448,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B182" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B184" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>15</v>
       </c>
@@ -3255,7 +3476,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>16</v>
       </c>
@@ -3263,7 +3484,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>17</v>
       </c>
@@ -3271,7 +3492,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>18</v>
       </c>
@@ -3279,7 +3500,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>19</v>
       </c>

--- a/Problems1-24-Autumn.xlsx
+++ b/Problems1-24-Autumn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/MIPT/2024:2025/Data base/DB_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D651B2D-4651-8A45-B070-C7C8E62DEE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFD879A-1B85-414A-BDA8-E442A16C683E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19580" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Var2" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="212">
   <si>
     <t>}</t>
   </si>
@@ -662,6 +662,15 @@
   </si>
   <si>
     <t>RES</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>2*</t>
+  </si>
+  <si>
+    <t>3*</t>
   </si>
 </sst>
 </file>
@@ -671,7 +680,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,6 +723,23 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -824,7 +850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -860,11 +886,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -951,10 +1001,28 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1270,10 +1338,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C63A9C-52B5-48DD-AFC1-6117206D7AE1}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:AR264"/>
+  <dimension ref="A2:AR367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="150" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R246" sqref="R246"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="200" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1597,15 +1665,15 @@
     </row>
     <row r="20" spans="1:44" ht="23" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="H22" s="6">
@@ -3786,7 +3854,7 @@
       </c>
     </row>
     <row r="196" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="33">
+      <c r="A196" s="34">
         <v>12</v>
       </c>
       <c r="B196" s="32" t="s">
@@ -4037,369 +4105,2229 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B209" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C212" t="s">
         <v>29</v>
       </c>
       <c r="D212" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C218" t="s">
+      <c r="G212" t="s">
+        <v>21</v>
+      </c>
+      <c r="H212" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="I212" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="J212" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="K212" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="L212" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H213" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="I213" s="67">
+        <v>15000</v>
+      </c>
+      <c r="J213" s="67">
+        <v>1</v>
+      </c>
+      <c r="K213" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="L213" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H214" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="I214" s="67">
+        <v>30000</v>
+      </c>
+      <c r="J214" s="67">
+        <v>1</v>
+      </c>
+      <c r="K214" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="L214" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H215" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="I215" s="67">
+        <v>60000</v>
+      </c>
+      <c r="J215" s="67">
+        <v>1</v>
+      </c>
+      <c r="K215" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="L215" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H216" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I216" s="67">
+        <v>17000</v>
+      </c>
+      <c r="J216" s="67">
+        <v>1</v>
+      </c>
+      <c r="K216" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="L216" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H217" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="I217" s="67">
+        <v>23000</v>
+      </c>
+      <c r="J217" s="67">
+        <v>1</v>
+      </c>
+      <c r="K217" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="L217" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H218" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="I218" s="67">
+        <v>25000</v>
+      </c>
+      <c r="J218" s="67">
+        <v>2</v>
+      </c>
+      <c r="K218" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="L218" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H219" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="I219" s="67">
+        <v>32000</v>
+      </c>
+      <c r="J219" s="67">
+        <v>2</v>
+      </c>
+      <c r="K219" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="L219" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H220" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="I220" s="67">
+        <v>16000</v>
+      </c>
+      <c r="J220" s="67">
+        <v>2</v>
+      </c>
+      <c r="K220" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="L220" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H221" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="I221" s="67">
+        <v>20000</v>
+      </c>
+      <c r="J221" s="67">
+        <v>2</v>
+      </c>
+      <c r="K221" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="L221" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H222" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="I222" s="67">
+        <v>40000</v>
+      </c>
+      <c r="J222" s="67">
+        <v>2</v>
+      </c>
+      <c r="K222" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="L222" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H223" s="52"/>
+      <c r="I223" s="52"/>
+      <c r="J223" s="52"/>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C224" t="s">
         <v>30</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D224" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C219" t="s">
+      <c r="G224" t="s">
+        <v>21</v>
+      </c>
+      <c r="H224" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="I224" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="J224" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="K224" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="L224" s="60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="225" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H225" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="I225" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J225" s="62">
+        <v>2</v>
+      </c>
+      <c r="K225" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="L225" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H226" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I226" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J226" s="62">
+        <v>1</v>
+      </c>
+      <c r="K226" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="L226" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="227" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H227" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I227" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J227" s="62">
+        <v>2</v>
+      </c>
+      <c r="K227" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="L227" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="228" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H228" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="I228" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="J228" s="62">
+        <v>1</v>
+      </c>
+      <c r="K228" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="L228" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="229" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H229" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I229" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="J229" s="62">
+        <v>1</v>
+      </c>
+      <c r="K229" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="L229" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="230" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H230" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="I230" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="J230" s="62">
+        <v>2</v>
+      </c>
+      <c r="K230" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="L230" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="232" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C232" t="s">
         <v>31</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D232" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C220" t="s">
+      <c r="G232" t="s">
+        <v>21</v>
+      </c>
+      <c r="H232" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="I232" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="J232" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="K232" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="L232" s="56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="233" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H233" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I233" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J233" s="57">
+        <v>2</v>
+      </c>
+      <c r="K233" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L233" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="234" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H234" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I234" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J234" s="57">
+        <v>2</v>
+      </c>
+      <c r="K234" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L234" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="235" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H235" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I235" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J235" s="57">
+        <v>2</v>
+      </c>
+      <c r="K235" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L235" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="236" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H236" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I236" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J236" s="57">
+        <v>2</v>
+      </c>
+      <c r="K236" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L236" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="237" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H237" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I237" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J237" s="57">
+        <v>2</v>
+      </c>
+      <c r="K237" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L237" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="238" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H238" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I238" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J238" s="57">
+        <v>2</v>
+      </c>
+      <c r="K238" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L238" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="239" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H239" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I239" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J239" s="57">
+        <v>2</v>
+      </c>
+      <c r="K239" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L239" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="240" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H240" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I240" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J240" s="57">
+        <v>2</v>
+      </c>
+      <c r="K240" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L240" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="241" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H241" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I241" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J241" s="57">
+        <v>2</v>
+      </c>
+      <c r="K241" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L241" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="242" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H242" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I242" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J242" s="57">
+        <v>2</v>
+      </c>
+      <c r="K242" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L242" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="243" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H243" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I243" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J243" s="25">
+        <v>1</v>
+      </c>
+      <c r="K243" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L243" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="244" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H244" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I244" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J244" s="25">
+        <v>1</v>
+      </c>
+      <c r="K244" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L244" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="245" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H245" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I245" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J245" s="25">
+        <v>1</v>
+      </c>
+      <c r="K245" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L245" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="246" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H246" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I246" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J246" s="25">
+        <v>1</v>
+      </c>
+      <c r="K246" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L246" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="247" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H247" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I247" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J247" s="25">
+        <v>1</v>
+      </c>
+      <c r="K247" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L247" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="248" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H248" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I248" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J248" s="25">
+        <v>1</v>
+      </c>
+      <c r="K248" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L248" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="249" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H249" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I249" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J249" s="25">
+        <v>1</v>
+      </c>
+      <c r="K249" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L249" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="250" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H250" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I250" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J250" s="25">
+        <v>1</v>
+      </c>
+      <c r="K250" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L250" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="251" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H251" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I251" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J251" s="25">
+        <v>1</v>
+      </c>
+      <c r="K251" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L251" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="252" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H252" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I252" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J252" s="25">
+        <v>1</v>
+      </c>
+      <c r="K252" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L252" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="253" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H253" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I253" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J253" s="25">
+        <v>2</v>
+      </c>
+      <c r="K253" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L253" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="254" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H254" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I254" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J254" s="25">
+        <v>2</v>
+      </c>
+      <c r="K254" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L254" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="255" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H255" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I255" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J255" s="25">
+        <v>2</v>
+      </c>
+      <c r="K255" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L255" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="256" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H256" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I256" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J256" s="25">
+        <v>2</v>
+      </c>
+      <c r="K256" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L256" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="257" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H257" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I257" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J257" s="25">
+        <v>2</v>
+      </c>
+      <c r="K257" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L257" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="258" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H258" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I258" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J258" s="25">
+        <v>2</v>
+      </c>
+      <c r="K258" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L258" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="259" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H259" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I259" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J259" s="25">
+        <v>2</v>
+      </c>
+      <c r="K259" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L259" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="260" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H260" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I260" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J260" s="25">
+        <v>2</v>
+      </c>
+      <c r="K260" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L260" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="261" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H261" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I261" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J261" s="25">
+        <v>2</v>
+      </c>
+      <c r="K261" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L261" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="262" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H262" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I262" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J262" s="25">
+        <v>2</v>
+      </c>
+      <c r="K262" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L262" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="263" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H263" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I263" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J263" s="25">
+        <v>1</v>
+      </c>
+      <c r="K263" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L263" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="264" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H264" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I264" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J264" s="25">
+        <v>1</v>
+      </c>
+      <c r="K264" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L264" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="265" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H265" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I265" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J265" s="25">
+        <v>1</v>
+      </c>
+      <c r="K265" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L265" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="266" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H266" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I266" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J266" s="25">
+        <v>1</v>
+      </c>
+      <c r="K266" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L266" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="267" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H267" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I267" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J267" s="25">
+        <v>1</v>
+      </c>
+      <c r="K267" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L267" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="268" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H268" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I268" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J268" s="25">
+        <v>1</v>
+      </c>
+      <c r="K268" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L268" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="269" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H269" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I269" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J269" s="25">
+        <v>1</v>
+      </c>
+      <c r="K269" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L269" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="270" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H270" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I270" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J270" s="25">
+        <v>1</v>
+      </c>
+      <c r="K270" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L270" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="271" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H271" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I271" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J271" s="25">
+        <v>1</v>
+      </c>
+      <c r="K271" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L271" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="272" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H272" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I272" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J272" s="25">
+        <v>1</v>
+      </c>
+      <c r="K272" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L272" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="273" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H273" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I273" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J273" s="25">
+        <v>1</v>
+      </c>
+      <c r="K273" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L273" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="274" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H274" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I274" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J274" s="25">
+        <v>1</v>
+      </c>
+      <c r="K274" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L274" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="275" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H275" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I275" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J275" s="25">
+        <v>1</v>
+      </c>
+      <c r="K275" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L275" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="276" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H276" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I276" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J276" s="25">
+        <v>1</v>
+      </c>
+      <c r="K276" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L276" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="277" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H277" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I277" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J277" s="25">
+        <v>1</v>
+      </c>
+      <c r="K277" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L277" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="278" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H278" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I278" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J278" s="25">
+        <v>1</v>
+      </c>
+      <c r="K278" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L278" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="279" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H279" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I279" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J279" s="25">
+        <v>1</v>
+      </c>
+      <c r="K279" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L279" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="280" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H280" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I280" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J280" s="25">
+        <v>1</v>
+      </c>
+      <c r="K280" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L280" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="281" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H281" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I281" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J281" s="25">
+        <v>1</v>
+      </c>
+      <c r="K281" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L281" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="282" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H282" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I282" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J282" s="25">
+        <v>1</v>
+      </c>
+      <c r="K282" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L282" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="283" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H283" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I283" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J283" s="25">
+        <v>2</v>
+      </c>
+      <c r="K283" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L283" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="284" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H284" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I284" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J284" s="25">
+        <v>2</v>
+      </c>
+      <c r="K284" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L284" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="285" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H285" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I285" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J285" s="25">
+        <v>2</v>
+      </c>
+      <c r="K285" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L285" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="286" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H286" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I286" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J286" s="25">
+        <v>2</v>
+      </c>
+      <c r="K286" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L286" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="287" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H287" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I287" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J287" s="25">
+        <v>2</v>
+      </c>
+      <c r="K287" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L287" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="288" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H288" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I288" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J288" s="25">
+        <v>2</v>
+      </c>
+      <c r="K288" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L288" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="289" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H289" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I289" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J289" s="25">
+        <v>2</v>
+      </c>
+      <c r="K289" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L289" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="290" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H290" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I290" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J290" s="25">
+        <v>2</v>
+      </c>
+      <c r="K290" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L290" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="291" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H291" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I291" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J291" s="25">
+        <v>2</v>
+      </c>
+      <c r="K291" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L291" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="292" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H292" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I292" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J292" s="25">
+        <v>2</v>
+      </c>
+      <c r="K292" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L292" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="293" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H293" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I293" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J293" s="25">
+        <v>1</v>
+      </c>
+      <c r="K293" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L293" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="294" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H294" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I294" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J294" s="25">
+        <v>1</v>
+      </c>
+      <c r="K294" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L294" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="295" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H295" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I295" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J295" s="25">
+        <v>1</v>
+      </c>
+      <c r="K295" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L295" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="296" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H296" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I296" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J296" s="25">
+        <v>1</v>
+      </c>
+      <c r="K296" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L296" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="297" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H297" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I297" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J297" s="25">
+        <v>1</v>
+      </c>
+      <c r="K297" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L297" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="298" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H298" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I298" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J298" s="57">
+        <v>1</v>
+      </c>
+      <c r="K298" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="L298" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="299" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H299" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I299" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J299" s="57">
+        <v>1</v>
+      </c>
+      <c r="K299" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="L299" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="300" spans="8:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H300" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I300" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J300" s="25">
+        <v>2</v>
+      </c>
+      <c r="K300" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L300" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="301" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H301" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I301" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J301" s="25">
+        <v>2</v>
+      </c>
+      <c r="K301" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L301" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="302" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H302" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I302" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J302" s="25">
+        <v>2</v>
+      </c>
+      <c r="K302" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L302" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="303" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H303" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I303" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J303" s="25">
+        <v>2</v>
+      </c>
+      <c r="K303" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L303" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="304" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H304" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I304" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J304" s="25">
+        <v>2</v>
+      </c>
+      <c r="K304" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L304" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="305" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H305" s="54"/>
+      <c r="I305" s="54"/>
+      <c r="J305" s="54"/>
+      <c r="K305" s="54"/>
+      <c r="L305" s="54"/>
+    </row>
+    <row r="306" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C306" t="s">
         <v>32</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D306" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="34">
+      <c r="G306" t="s">
+        <v>21</v>
+      </c>
+      <c r="H306" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="I306" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="J306" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="K306" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="L306" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="O306" s="72"/>
+      <c r="P306" s="72"/>
+      <c r="Q306" s="72"/>
+    </row>
+    <row r="307" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H307" s="38">
+        <v>1</v>
+      </c>
+      <c r="I307" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J307" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K307" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L307" s="69">
+        <v>45627</v>
+      </c>
+      <c r="O307" s="54"/>
+      <c r="P307" s="54"/>
+      <c r="Q307" s="54"/>
+    </row>
+    <row r="308" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H308" s="38">
+        <v>1</v>
+      </c>
+      <c r="I308" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J308" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K308" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L308" s="69">
+        <v>45047</v>
+      </c>
+      <c r="O308" s="54"/>
+      <c r="P308" s="54"/>
+      <c r="Q308" s="54"/>
+    </row>
+    <row r="309" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H309" s="38">
+        <v>2</v>
+      </c>
+      <c r="I309" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J309" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K309" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L309" s="69">
+        <v>45627</v>
+      </c>
+      <c r="O309" s="54"/>
+      <c r="P309" s="54"/>
+      <c r="Q309" s="54"/>
+    </row>
+    <row r="310" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H310" s="38">
+        <v>2</v>
+      </c>
+      <c r="I310" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J310" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K310" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L310" s="69">
+        <v>45047</v>
+      </c>
+      <c r="O310" s="54"/>
+      <c r="P310" s="54"/>
+      <c r="Q310" s="54"/>
+    </row>
+    <row r="311" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H311" s="38">
+        <v>1</v>
+      </c>
+      <c r="I311" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J311" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K311" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L311" s="69">
+        <v>45627</v>
+      </c>
+      <c r="O311" s="72"/>
+      <c r="P311" s="72"/>
+      <c r="Q311" s="54"/>
+    </row>
+    <row r="312" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H312" s="38">
+        <v>2</v>
+      </c>
+      <c r="I312" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J312" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K312" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L312" s="69">
+        <v>45627</v>
+      </c>
+      <c r="O312" s="54"/>
+      <c r="P312" s="73"/>
+      <c r="Q312" s="54"/>
+    </row>
+    <row r="313" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H313" s="38">
+        <v>1</v>
+      </c>
+      <c r="I313" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J313" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K313" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L313" s="69">
+        <v>45627</v>
+      </c>
+      <c r="O313" s="54"/>
+      <c r="P313" s="73"/>
+      <c r="Q313" s="54"/>
+    </row>
+    <row r="314" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H314" s="38">
+        <v>2</v>
+      </c>
+      <c r="I314" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J314" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K314" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L314" s="69">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="315" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H315" s="38">
+        <v>1</v>
+      </c>
+      <c r="I315" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J315" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K315" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L315" s="69">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="316" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H316" s="38">
+        <v>2</v>
+      </c>
+      <c r="I316" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J316" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K316" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L316" s="69">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="317" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H317" s="38">
+        <v>1</v>
+      </c>
+      <c r="I317" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J317" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K317" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L317" s="69">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="318" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H318" s="38">
+        <v>2</v>
+      </c>
+      <c r="I318" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J318" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K318" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L318" s="69">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="319" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H319" s="38">
+        <v>1</v>
+      </c>
+      <c r="I319" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J319" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K319" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L319" s="69">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="320" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H320" s="38">
+        <v>2</v>
+      </c>
+      <c r="I320" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J320" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K320" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L320" s="69">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H321" s="38">
+        <v>1</v>
+      </c>
+      <c r="I321" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J321" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K321" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L321" s="69">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H322" s="38">
+        <v>2</v>
+      </c>
+      <c r="I322" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J322" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K322" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L322" s="69">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H323" s="38">
+        <v>1</v>
+      </c>
+      <c r="I323" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J323" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K323" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L323" s="69">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H324" s="38">
+        <v>2</v>
+      </c>
+      <c r="I324" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J324" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K324" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="L324" s="71">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H325" s="38">
+        <v>1</v>
+      </c>
+      <c r="I325" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J325" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K325" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="L325" s="71">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H326" s="38">
+        <v>2</v>
+      </c>
+      <c r="I326" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J326" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K326" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="L326" s="71">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="34">
         <v>13</v>
       </c>
-      <c r="B222" s="32" t="s">
+      <c r="B335" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="32" t="s">
+    <row r="336" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B336" s="32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G224" s="45"/>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B225" s="2" t="s">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G337" s="45"/>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B338" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E227" t="s">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E340" t="s">
         <v>29</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F340" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E228" t="s">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E341" t="s">
         <v>30</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F341" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H230" s="50" t="s">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H343" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="I230" s="50" t="s">
+      <c r="I343" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="J230" s="50" t="s">
+      <c r="J343" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="M230" s="51" t="s">
+      <c r="M343" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="N230" s="51" t="s">
+      <c r="N343" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="O230" s="51" t="s">
+      <c r="O343" s="51" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G231" t="s">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G344" t="s">
         <v>154</v>
       </c>
-      <c r="H231" s="48">
+      <c r="H344" s="48">
         <v>0</v>
       </c>
-      <c r="I231" s="48">
+      <c r="I344" s="48">
         <v>0</v>
       </c>
-      <c r="J231" s="48" t="b">
-        <f>OR(NOT(OR(NOT(H231), NOT(I231))),H231)</f>
+      <c r="J344" s="48" t="b">
+        <f>OR(NOT(OR(NOT(H344), NOT(I344))),H344)</f>
         <v>0</v>
       </c>
-      <c r="L231" t="s">
+      <c r="L344" t="s">
         <v>30</v>
       </c>
-      <c r="M231" s="49">
+      <c r="M344" s="49">
         <v>0</v>
       </c>
-      <c r="N231" s="49">
+      <c r="N344" s="49">
         <v>0</v>
       </c>
-      <c r="O231" s="49" t="b">
-        <f>OR(AND(NOT(M231), NOT(N231)),OR(NOT(M231), NOT(N231)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H232" s="46">
+      <c r="O344" s="49" t="b">
+        <f>OR(AND(NOT(M344), NOT(N344)),OR(NOT(M344), NOT(N344)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H345" s="46">
         <v>0</v>
       </c>
-      <c r="I232" s="46">
-        <v>1</v>
-      </c>
-      <c r="J232" s="46" t="b">
-        <f t="shared" ref="J232:J234" si="0">OR(NOT(OR(NOT(H232), NOT(I232))),H232)</f>
+      <c r="I345" s="46">
+        <v>1</v>
+      </c>
+      <c r="J345" s="46" t="b">
+        <f t="shared" ref="J345:J347" si="0">OR(NOT(OR(NOT(H345), NOT(I345))),H345)</f>
         <v>0</v>
       </c>
-      <c r="M232" s="47">
+      <c r="M345" s="47">
         <v>0</v>
       </c>
-      <c r="N232" s="47">
-        <v>1</v>
-      </c>
-      <c r="O232" s="49" t="b">
-        <f t="shared" ref="O232:O234" si="1">OR(AND(NOT(M232), NOT(N232)),OR(NOT(M232), NOT(N232)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H233" s="46">
-        <v>1</v>
-      </c>
-      <c r="I233" s="46">
+      <c r="N345" s="47">
+        <v>1</v>
+      </c>
+      <c r="O345" s="49" t="b">
+        <f t="shared" ref="O345:O347" si="1">OR(AND(NOT(M345), NOT(N345)),OR(NOT(M345), NOT(N345)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H346" s="46">
+        <v>1</v>
+      </c>
+      <c r="I346" s="46">
         <v>0</v>
       </c>
-      <c r="J233" s="46" t="b">
+      <c r="J346" s="46" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M233" s="47">
-        <v>1</v>
-      </c>
-      <c r="N233" s="47">
+      <c r="M346" s="47">
+        <v>1</v>
+      </c>
+      <c r="N346" s="47">
         <v>0</v>
       </c>
-      <c r="O233" s="49" t="b">
+      <c r="O346" s="49" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H234" s="46">
-        <v>1</v>
-      </c>
-      <c r="I234" s="46">
-        <v>1</v>
-      </c>
-      <c r="J234" s="46" t="b">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H347" s="46">
+        <v>1</v>
+      </c>
+      <c r="I347" s="46">
+        <v>1</v>
+      </c>
+      <c r="J347" s="46" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M234" s="47">
-        <v>1</v>
-      </c>
-      <c r="N234" s="47">
-        <v>1</v>
-      </c>
-      <c r="O234" s="49" t="b">
+      <c r="M347" s="47">
+        <v>1</v>
+      </c>
+      <c r="N347" s="47">
+        <v>1</v>
+      </c>
+      <c r="O347" s="49" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="33">
+    <row r="350" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="33">
         <v>14</v>
       </c>
-      <c r="B237" s="32" t="s">
+      <c r="B350" s="32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B238" s="2" t="s">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B351" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G238" s="45"/>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B239" s="2" t="s">
+      <c r="G351" s="45"/>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B352" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B240" s="2" t="s">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B353" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B242" s="2" t="s">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B355" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="244" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="33">
+    <row r="357" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="33">
         <v>15</v>
       </c>
-      <c r="B244" s="32" t="s">
+      <c r="B357" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G245" s="45"/>
-    </row>
-    <row r="246" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="33">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G358" s="45"/>
+    </row>
+    <row r="359" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="33">
         <v>16</v>
       </c>
-      <c r="B246" s="32" t="s">
+      <c r="B359" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G247" s="45"/>
-    </row>
-    <row r="248" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="33">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G360" s="45"/>
+    </row>
+    <row r="361" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="33">
         <v>17</v>
       </c>
-      <c r="B248" s="32" t="s">
+      <c r="B361" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G249" s="45"/>
-    </row>
-    <row r="250" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="33">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G362" s="45"/>
+    </row>
+    <row r="363" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="33">
         <v>18</v>
       </c>
-      <c r="B250" s="32" t="s">
+      <c r="B363" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G251" s="45"/>
-    </row>
-    <row r="252" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="33">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G364" s="45"/>
+    </row>
+    <row r="365" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="33">
         <v>19</v>
       </c>
-      <c r="B252" s="32" t="s">
+      <c r="B365" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F253" s="54"/>
-      <c r="G253" s="55"/>
-      <c r="H253" s="54"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F254" s="54"/>
-      <c r="G254" s="54"/>
-      <c r="H254" s="53"/>
-      <c r="I254" s="53"/>
-      <c r="J254" s="53"/>
-      <c r="K254" s="53"/>
-      <c r="L254" s="53"/>
-      <c r="M254" s="53"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H255" s="54"/>
-      <c r="I255" s="54"/>
-      <c r="J255" s="54"/>
-      <c r="K255" s="54"/>
-      <c r="L255" s="54"/>
-      <c r="M255" s="54"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H256" s="54"/>
-      <c r="I256" s="54"/>
-      <c r="J256" s="54"/>
-      <c r="K256" s="54"/>
-      <c r="L256" s="54"/>
-      <c r="M256" s="54"/>
-    </row>
-    <row r="257" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H257" s="54"/>
-      <c r="I257" s="54"/>
-      <c r="J257" s="54"/>
-      <c r="K257" s="54"/>
-      <c r="L257" s="54"/>
-      <c r="M257" s="54"/>
-    </row>
-    <row r="258" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H258" s="54"/>
-      <c r="I258" s="54"/>
-      <c r="J258" s="54"/>
-      <c r="K258" s="54"/>
-      <c r="L258" s="54"/>
-      <c r="M258" s="54"/>
-    </row>
-    <row r="259" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H259" s="54"/>
-      <c r="I259" s="54"/>
-      <c r="J259" s="54"/>
-      <c r="K259" s="54"/>
-      <c r="L259" s="54"/>
-      <c r="M259" s="54"/>
-    </row>
-    <row r="260" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H260" s="54"/>
-      <c r="I260" s="54"/>
-      <c r="J260" s="54"/>
-      <c r="K260" s="54"/>
-      <c r="L260" s="54"/>
-      <c r="M260" s="54"/>
-    </row>
-    <row r="261" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H261" s="54"/>
-      <c r="I261" s="54"/>
-      <c r="J261" s="54"/>
-      <c r="K261" s="54"/>
-      <c r="L261" s="54"/>
-      <c r="M261" s="54"/>
-    </row>
-    <row r="262" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H262" s="54"/>
-      <c r="I262" s="54"/>
-      <c r="J262" s="54"/>
-      <c r="K262" s="54"/>
-      <c r="L262" s="54"/>
-      <c r="M262" s="54"/>
-    </row>
-    <row r="263" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H263" s="54"/>
-      <c r="I263" s="54"/>
-      <c r="J263" s="54"/>
-      <c r="K263" s="54"/>
-      <c r="L263" s="54"/>
-      <c r="M263" s="54"/>
-    </row>
-    <row r="264" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H264" s="54"/>
-      <c r="I264" s="54"/>
-      <c r="J264" s="54"/>
-      <c r="K264" s="54"/>
-      <c r="L264" s="54"/>
-      <c r="M264" s="54"/>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G366" s="45"/>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H367" s="10"/>
+      <c r="I367" s="10"/>
+      <c r="J367" s="10"/>
+      <c r="K367" s="10"/>
+      <c r="L367" s="10"/>
+      <c r="M367" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Problems1-24-Autumn.xlsx
+++ b/Problems1-24-Autumn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/MIPT/2024:2025/Data base/DB_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFD879A-1B85-414A-BDA8-E442A16C683E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3422EC14-920F-EE46-95FC-9CE1432913CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="218">
   <si>
     <t>}</t>
   </si>
@@ -664,13 +664,31 @@
     <t>RES</t>
   </si>
   <si>
-    <t>1*</t>
-  </si>
-  <si>
-    <t>2*</t>
-  </si>
-  <si>
-    <t>3*</t>
+    <t>RANGE ANIMATOR = R1</t>
+  </si>
+  <si>
+    <t>RANGE SEASONS = R2</t>
+  </si>
+  <si>
+    <t>ANIMATOR.ANIMATE, ANIMATOR.PAYMENT WHERE (ANIMATOR.ANIMATE = SEASONS.ANIMATE AND SEASONS.SEASON = S)</t>
+  </si>
+  <si>
+    <t>R1)</t>
+  </si>
+  <si>
+    <t>R2)</t>
+  </si>
+  <si>
+    <t>{ANIMATE, SEASON} ---&gt; HOTEL</t>
+  </si>
+  <si>
+    <t>ANIMATE ----&gt; PAYMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANIMATE -&gt; {PAYMENT, HOTEL}, {ANIMATE, HOTEL} -&gt; {PAYMENT, HOTEL}, {ANIMATE, PAYMENT} -&gt; {HOTEL, PAYMENT}</t>
+  </si>
+  <si>
+    <t>{ANIMATE, SEASON} -&gt; {HOTEL, SEASON}, {ANIMATE, SEASON} -&gt; {HOTEL, ANIMATE}</t>
   </si>
 </sst>
 </file>
@@ -746,7 +764,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,8 +867,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4FFE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEADF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -910,11 +940,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -1002,8 +1045,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1021,14 +1062,33 @@
     <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFEADF"/>
+      <color rgb="FFC4FFE5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1338,10 +1398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C63A9C-52B5-48DD-AFC1-6117206D7AE1}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:AR367"/>
+  <dimension ref="A2:AR368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="200" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" topLeftCell="A333" zoomScale="200" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N341" sqref="N341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1665,15 +1725,15 @@
     </row>
     <row r="20" spans="1:44" ht="23" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="H22" s="6">
@@ -4120,13 +4180,13 @@
       <c r="G212" t="s">
         <v>21</v>
       </c>
-      <c r="H212" s="64" t="s">
+      <c r="H212" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="I212" s="65" t="s">
+      <c r="I212" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="J212" s="65" t="s">
+      <c r="J212" s="63" t="s">
         <v>142</v>
       </c>
       <c r="K212" s="40" t="s">
@@ -4137,13 +4197,13 @@
       </c>
     </row>
     <row r="213" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H213" s="66" t="s">
+      <c r="H213" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="I213" s="67">
+      <c r="I213" s="65">
         <v>15000</v>
       </c>
-      <c r="J213" s="67">
+      <c r="J213" s="65">
         <v>1</v>
       </c>
       <c r="K213" s="36" t="s">
@@ -4154,13 +4214,13 @@
       </c>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H214" s="66" t="s">
+      <c r="H214" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="I214" s="67">
+      <c r="I214" s="65">
         <v>30000</v>
       </c>
-      <c r="J214" s="67">
+      <c r="J214" s="65">
         <v>1</v>
       </c>
       <c r="K214" s="36" t="s">
@@ -4171,13 +4231,13 @@
       </c>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H215" s="66" t="s">
+      <c r="H215" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="I215" s="67">
+      <c r="I215" s="65">
         <v>60000</v>
       </c>
-      <c r="J215" s="67">
+      <c r="J215" s="65">
         <v>1</v>
       </c>
       <c r="K215" s="36" t="s">
@@ -4188,13 +4248,13 @@
       </c>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H216" s="66" t="s">
+      <c r="H216" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="I216" s="67">
+      <c r="I216" s="65">
         <v>17000</v>
       </c>
-      <c r="J216" s="67">
+      <c r="J216" s="65">
         <v>1</v>
       </c>
       <c r="K216" s="36" t="s">
@@ -4205,13 +4265,13 @@
       </c>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H217" s="66" t="s">
+      <c r="H217" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="I217" s="67">
+      <c r="I217" s="65">
         <v>23000</v>
       </c>
-      <c r="J217" s="67">
+      <c r="J217" s="65">
         <v>1</v>
       </c>
       <c r="K217" s="36" t="s">
@@ -4222,13 +4282,13 @@
       </c>
     </row>
     <row r="218" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H218" s="66" t="s">
+      <c r="H218" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="I218" s="67">
+      <c r="I218" s="65">
         <v>25000</v>
       </c>
-      <c r="J218" s="67">
+      <c r="J218" s="65">
         <v>2</v>
       </c>
       <c r="K218" s="36" t="s">
@@ -4239,13 +4299,13 @@
       </c>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H219" s="66" t="s">
+      <c r="H219" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="I219" s="67">
+      <c r="I219" s="65">
         <v>32000</v>
       </c>
-      <c r="J219" s="67">
+      <c r="J219" s="65">
         <v>2</v>
       </c>
       <c r="K219" s="36" t="s">
@@ -4256,13 +4316,13 @@
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H220" s="66" t="s">
+      <c r="H220" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="I220" s="67">
+      <c r="I220" s="65">
         <v>16000</v>
       </c>
-      <c r="J220" s="67">
+      <c r="J220" s="65">
         <v>2</v>
       </c>
       <c r="K220" s="36" t="s">
@@ -4273,13 +4333,13 @@
       </c>
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H221" s="66" t="s">
+      <c r="H221" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="I221" s="67">
+      <c r="I221" s="65">
         <v>20000</v>
       </c>
-      <c r="J221" s="67">
+      <c r="J221" s="65">
         <v>2</v>
       </c>
       <c r="K221" s="36" t="s">
@@ -4290,13 +4350,13 @@
       </c>
     </row>
     <row r="222" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H222" s="66" t="s">
+      <c r="H222" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="I222" s="67">
+      <c r="I222" s="65">
         <v>40000</v>
       </c>
-      <c r="J222" s="67">
+      <c r="J222" s="65">
         <v>2</v>
       </c>
       <c r="K222" s="36" t="s">
@@ -4321,121 +4381,121 @@
       <c r="G224" t="s">
         <v>21</v>
       </c>
-      <c r="H224" s="58" t="s">
+      <c r="H224" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="I224" s="59" t="s">
+      <c r="I224" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="J224" s="59" t="s">
+      <c r="J224" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="K224" s="60" t="s">
+      <c r="K224" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="L224" s="60" t="s">
+      <c r="L224" s="58" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="225" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H225" s="61" t="s">
+      <c r="H225" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="I225" s="62" t="s">
+      <c r="I225" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="J225" s="62">
-        <v>2</v>
-      </c>
-      <c r="K225" s="63" t="s">
+      <c r="J225" s="60">
+        <v>2</v>
+      </c>
+      <c r="K225" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="L225" s="63" t="s">
+      <c r="L225" s="61" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="226" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H226" s="61" t="s">
+      <c r="H226" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="I226" s="62" t="s">
+      <c r="I226" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="J226" s="62">
-        <v>1</v>
-      </c>
-      <c r="K226" s="63" t="s">
+      <c r="J226" s="60">
+        <v>1</v>
+      </c>
+      <c r="K226" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="L226" s="63" t="s">
+      <c r="L226" s="61" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="227" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H227" s="61" t="s">
+      <c r="H227" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="I227" s="62" t="s">
+      <c r="I227" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="J227" s="62">
-        <v>2</v>
-      </c>
-      <c r="K227" s="63" t="s">
+      <c r="J227" s="60">
+        <v>2</v>
+      </c>
+      <c r="K227" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="L227" s="63" t="s">
+      <c r="L227" s="61" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="228" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H228" s="61" t="s">
+      <c r="H228" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="I228" s="62" t="s">
+      <c r="I228" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="J228" s="62">
-        <v>1</v>
-      </c>
-      <c r="K228" s="63" t="s">
+      <c r="J228" s="60">
+        <v>1</v>
+      </c>
+      <c r="K228" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="L228" s="63" t="s">
+      <c r="L228" s="61" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="229" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H229" s="61" t="s">
+      <c r="H229" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="I229" s="62" t="s">
+      <c r="I229" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="J229" s="62">
-        <v>1</v>
-      </c>
-      <c r="K229" s="63" t="s">
+      <c r="J229" s="60">
+        <v>1</v>
+      </c>
+      <c r="K229" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="L229" s="63" t="s">
+      <c r="L229" s="61" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="230" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H230" s="61" t="s">
+      <c r="H230" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="I230" s="62" t="s">
+      <c r="I230" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="J230" s="62">
-        <v>2</v>
-      </c>
-      <c r="K230" s="63" t="s">
+      <c r="J230" s="60">
+        <v>2</v>
+      </c>
+      <c r="K230" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="L230" s="63" t="s">
+      <c r="L230" s="61" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4449,187 +4509,187 @@
       <c r="G232" t="s">
         <v>21</v>
       </c>
-      <c r="H232" s="55" t="s">
+      <c r="H232" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="I232" s="55" t="s">
+      <c r="I232" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="J232" s="55" t="s">
+      <c r="J232" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="K232" s="56" t="s">
+      <c r="K232" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="L232" s="56" t="s">
+      <c r="L232" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="233" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H233" s="57" t="s">
+      <c r="H233" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="I233" s="57" t="s">
+      <c r="I233" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="J233" s="57">
+      <c r="J233" s="55">
         <v>2</v>
       </c>
       <c r="K233" s="25" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="L233" s="25" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="234" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H234" s="57" t="s">
+      <c r="H234" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="I234" s="57" t="s">
+      <c r="I234" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="J234" s="57">
+      <c r="J234" s="55">
         <v>2</v>
       </c>
       <c r="K234" s="25" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="L234" s="25" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="235" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H235" s="57" t="s">
+      <c r="H235" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="I235" s="57" t="s">
+      <c r="I235" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="J235" s="57">
+      <c r="J235" s="55">
         <v>2</v>
       </c>
       <c r="K235" s="25" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="L235" s="25" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="236" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H236" s="57" t="s">
+      <c r="H236" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="I236" s="57" t="s">
+      <c r="I236" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="J236" s="57">
+      <c r="J236" s="55">
         <v>2</v>
       </c>
       <c r="K236" s="25" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="L236" s="25" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="237" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H237" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="I237" s="57" t="s">
+      <c r="H237" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I237" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J237" s="57">
-        <v>2</v>
+      <c r="J237" s="25">
+        <v>1</v>
       </c>
       <c r="K237" s="25" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="L237" s="25" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="238" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H238" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="I238" s="57" t="s">
+      <c r="H238" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I238" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J238" s="57">
-        <v>2</v>
+      <c r="J238" s="25">
+        <v>1</v>
       </c>
       <c r="K238" s="25" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="L238" s="25" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="239" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H239" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="I239" s="57" t="s">
+      <c r="H239" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I239" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J239" s="57">
-        <v>2</v>
+      <c r="J239" s="25">
+        <v>1</v>
       </c>
       <c r="K239" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L239" s="25" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="240" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H240" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="I240" s="57" t="s">
+      <c r="H240" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I240" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J240" s="57">
-        <v>2</v>
+      <c r="J240" s="25">
+        <v>1</v>
       </c>
       <c r="K240" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L240" s="25" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="241" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H241" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="I241" s="57" t="s">
+      <c r="H241" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I241" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J241" s="57">
+      <c r="J241" s="25">
         <v>2</v>
       </c>
       <c r="K241" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L241" s="25" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="242" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H242" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="I242" s="57" t="s">
+      <c r="H242" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I242" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J242" s="57">
+      <c r="J242" s="25">
         <v>2</v>
       </c>
       <c r="K242" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L242" s="25" t="s">
         <v>148</v>
@@ -4637,16 +4697,16 @@
     </row>
     <row r="243" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H243" s="25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I243" s="25" t="s">
         <v>69</v>
       </c>
       <c r="J243" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K243" s="25" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="L243" s="25" t="s">
         <v>151</v>
@@ -4654,16 +4714,16 @@
     </row>
     <row r="244" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H244" s="25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I244" s="25" t="s">
         <v>69</v>
       </c>
       <c r="J244" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K244" s="25" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="L244" s="25" t="s">
         <v>148</v>
@@ -4671,16 +4731,16 @@
     </row>
     <row r="245" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H245" s="25" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="I245" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J245" s="25">
         <v>1</v>
       </c>
       <c r="K245" s="25" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="L245" s="25" t="s">
         <v>151</v>
@@ -4688,16 +4748,16 @@
     </row>
     <row r="246" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H246" s="25" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="I246" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J246" s="25">
         <v>1</v>
       </c>
       <c r="K246" s="25" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="L246" s="25" t="s">
         <v>148</v>
@@ -4705,16 +4765,16 @@
     </row>
     <row r="247" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H247" s="25" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="I247" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J247" s="25">
         <v>1</v>
       </c>
       <c r="K247" s="25" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="L247" s="25" t="s">
         <v>151</v>
@@ -4722,16 +4782,16 @@
     </row>
     <row r="248" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H248" s="25" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="I248" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J248" s="25">
         <v>1</v>
       </c>
       <c r="K248" s="25" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="L248" s="25" t="s">
         <v>148</v>
@@ -4742,7 +4802,7 @@
         <v>63</v>
       </c>
       <c r="I249" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J249" s="25">
         <v>1</v>
@@ -4759,7 +4819,7 @@
         <v>63</v>
       </c>
       <c r="I250" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J250" s="25">
         <v>1</v>
@@ -4776,7 +4836,7 @@
         <v>63</v>
       </c>
       <c r="I251" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J251" s="25">
         <v>1</v>
@@ -4793,7 +4853,7 @@
         <v>63</v>
       </c>
       <c r="I252" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J252" s="25">
         <v>1</v>
@@ -4807,16 +4867,16 @@
     </row>
     <row r="253" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H253" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I253" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J253" s="25">
         <v>2</v>
       </c>
       <c r="K253" s="25" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="L253" s="25" t="s">
         <v>151</v>
@@ -4824,16 +4884,16 @@
     </row>
     <row r="254" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H254" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I254" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J254" s="25">
         <v>2</v>
       </c>
       <c r="K254" s="25" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="L254" s="25" t="s">
         <v>148</v>
@@ -4841,16 +4901,16 @@
     </row>
     <row r="255" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H255" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I255" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J255" s="25">
         <v>2</v>
       </c>
       <c r="K255" s="25" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="L255" s="25" t="s">
         <v>151</v>
@@ -4858,73 +4918,73 @@
     </row>
     <row r="256" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H256" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I256" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J256" s="25">
         <v>2</v>
       </c>
       <c r="K256" s="25" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="L256" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="257" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H257" s="25" t="s">
-        <v>67</v>
+    <row r="257" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H257" s="55" t="s">
+        <v>144</v>
       </c>
       <c r="I257" s="25" t="s">
         <v>69</v>
       </c>
       <c r="J257" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K257" s="25" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="L257" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="258" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H258" s="25" t="s">
-        <v>67</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="258" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H258" s="55" t="s">
+        <v>144</v>
       </c>
       <c r="I258" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J258" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K258" s="25" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="L258" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="259" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:17" x14ac:dyDescent="0.2">
       <c r="H259" s="25" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="I259" s="25" t="s">
         <v>69</v>
       </c>
       <c r="J259" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K259" s="25" t="s">
         <v>149</v>
       </c>
       <c r="L259" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="260" spans="8:12" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="260" spans="3:17" x14ac:dyDescent="0.2">
       <c r="H260" s="25" t="s">
         <v>67</v>
       </c>
@@ -4932,7 +4992,7 @@
         <v>69</v>
       </c>
       <c r="J260" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K260" s="25" t="s">
         <v>149</v>
@@ -4941,92 +5001,92 @@
         <v>148</v>
       </c>
     </row>
-    <row r="261" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:17" x14ac:dyDescent="0.2">
       <c r="H261" s="25" t="s">
         <v>67</v>
       </c>
       <c r="I261" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J261" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K261" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L261" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="262" spans="8:12" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="262" spans="3:17" x14ac:dyDescent="0.2">
       <c r="H262" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I262" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J262" s="25">
-        <v>2</v>
-      </c>
-      <c r="K262" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L262" s="25" t="s">
+      <c r="J262" s="55">
+        <v>1</v>
+      </c>
+      <c r="K262" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="L262" s="55" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="263" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:17" x14ac:dyDescent="0.2">
       <c r="H263" s="25" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="I263" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="J263" s="25">
-        <v>1</v>
-      </c>
-      <c r="K263" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="L263" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="264" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H264" s="25" t="s">
-        <v>113</v>
+      <c r="J263" s="55">
+        <v>1</v>
+      </c>
+      <c r="K263" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="L263" s="55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="264" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H264" s="55" t="s">
+        <v>144</v>
       </c>
       <c r="I264" s="25" t="s">
         <v>70</v>
       </c>
       <c r="J264" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K264" s="25" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="L264" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="265" spans="8:12" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="265" spans="3:17" x14ac:dyDescent="0.2">
       <c r="H265" s="25" t="s">
         <v>113</v>
       </c>
       <c r="I265" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J265" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K265" s="25" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="L265" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:17" x14ac:dyDescent="0.2">
       <c r="H266" s="25" t="s">
         <v>113</v>
       </c>
@@ -5034,1300 +5094,1128 @@
         <v>70</v>
       </c>
       <c r="J266" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K266" s="25" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="L266" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="267" spans="8:12" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="267" spans="3:17" x14ac:dyDescent="0.2">
       <c r="H267" s="25" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="I267" s="25" t="s">
         <v>70</v>
       </c>
       <c r="J267" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K267" s="25" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="L267" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="268" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:17" x14ac:dyDescent="0.2">
       <c r="H268" s="25" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="I268" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J268" s="25">
+        <v>2</v>
+      </c>
+      <c r="K268" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L268" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="270" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C270" t="s">
+        <v>32</v>
+      </c>
+      <c r="D270" t="s">
+        <v>80</v>
+      </c>
+      <c r="G270" t="s">
+        <v>21</v>
+      </c>
+      <c r="H270" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="I270" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J270" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="K270" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="L270" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="O270" s="10"/>
+      <c r="P270" s="10"/>
+      <c r="Q270" s="10"/>
+    </row>
+    <row r="271" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H271" s="38">
+        <v>1</v>
+      </c>
+      <c r="I271" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J271" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K271" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="J268" s="25">
-        <v>1</v>
-      </c>
-      <c r="K268" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="L268" s="25" t="s">
+      <c r="L271" s="67">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="272" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="H272" s="38">
+        <v>1</v>
+      </c>
+      <c r="I272" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J272" s="38" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="269" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H269" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I269" s="25" t="s">
+      <c r="K272" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L272" s="67">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="273" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H273" s="38">
+        <v>2</v>
+      </c>
+      <c r="I273" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J273" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K273" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="J269" s="25">
-        <v>1</v>
-      </c>
-      <c r="K269" s="25" t="s">
+      <c r="L273" s="67">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="274" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H274" s="38">
+        <v>2</v>
+      </c>
+      <c r="I274" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J274" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K274" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L274" s="67">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="275" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H275" s="38">
+        <v>1</v>
+      </c>
+      <c r="I275" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="L269" s="25" t="s">
+      <c r="J275" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K275" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L275" s="67">
+        <v>45627</v>
+      </c>
+      <c r="O275" s="10"/>
+      <c r="P275" s="10"/>
+    </row>
+    <row r="276" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H276" s="38">
+        <v>2</v>
+      </c>
+      <c r="I276" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J276" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K276" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L276" s="67">
+        <v>45627</v>
+      </c>
+      <c r="P276" s="70"/>
+    </row>
+    <row r="277" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H277" s="38">
+        <v>1</v>
+      </c>
+      <c r="I277" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J277" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K277" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L277" s="67">
+        <v>45627</v>
+      </c>
+      <c r="P277" s="70"/>
+    </row>
+    <row r="278" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H278" s="38">
+        <v>2</v>
+      </c>
+      <c r="I278" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J278" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K278" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L278" s="67">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="279" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H279" s="38">
+        <v>1</v>
+      </c>
+      <c r="I279" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J279" s="38" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="270" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H270" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I270" s="25" t="s">
+      <c r="K279" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L279" s="67">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="280" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H280" s="38">
+        <v>2</v>
+      </c>
+      <c r="I280" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J280" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K280" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L280" s="67">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="281" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H281" s="38">
+        <v>1</v>
+      </c>
+      <c r="I281" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J281" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K281" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L281" s="67">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="282" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H282" s="38">
+        <v>2</v>
+      </c>
+      <c r="I282" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J282" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K282" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L282" s="67">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="283" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H283" s="38">
+        <v>1</v>
+      </c>
+      <c r="I283" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J283" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K283" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="J270" s="25">
-        <v>1</v>
-      </c>
-      <c r="K270" s="25" t="s">
+      <c r="L283" s="67">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="284" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H284" s="38">
+        <v>2</v>
+      </c>
+      <c r="I284" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="L270" s="25" t="s">
+      <c r="J284" s="38" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="271" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H271" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I271" s="25" t="s">
+      <c r="K284" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="J271" s="25">
-        <v>1</v>
-      </c>
-      <c r="K271" s="25" t="s">
+      <c r="L284" s="67">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="285" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H285" s="38">
+        <v>1</v>
+      </c>
+      <c r="I285" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="L271" s="25" t="s">
+      <c r="J285" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K285" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L285" s="67">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="286" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H286" s="38">
+        <v>2</v>
+      </c>
+      <c r="I286" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J286" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K286" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L286" s="67">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="287" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H287" s="38">
+        <v>1</v>
+      </c>
+      <c r="I287" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J287" s="38" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="272" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H272" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I272" s="25" t="s">
+      <c r="K287" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="J272" s="25">
-        <v>1</v>
-      </c>
-      <c r="K272" s="25" t="s">
+      <c r="L287" s="67">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="288" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H288" s="38">
+        <v>2</v>
+      </c>
+      <c r="I288" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J288" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K288" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="L288" s="69">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H289" s="38">
+        <v>1</v>
+      </c>
+      <c r="I289" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="L272" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="273" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H273" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I273" s="25" t="s">
+      <c r="J289" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="K289" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="J273" s="25">
-        <v>1</v>
-      </c>
-      <c r="K273" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="L273" s="25" t="s">
+      <c r="L289" s="69">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H290" s="38">
+        <v>2</v>
+      </c>
+      <c r="I290" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J290" s="38" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="274" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H274" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I274" s="25" t="s">
+      <c r="K290" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="J274" s="25">
-        <v>1</v>
-      </c>
-      <c r="K274" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="L274" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="275" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H275" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I275" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J275" s="25">
-        <v>1</v>
-      </c>
-      <c r="K275" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="L275" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="276" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H276" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I276" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J276" s="25">
-        <v>1</v>
-      </c>
-      <c r="K276" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="L276" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="277" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H277" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I277" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J277" s="25">
-        <v>1</v>
-      </c>
-      <c r="K277" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="L277" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="278" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H278" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I278" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J278" s="25">
-        <v>1</v>
-      </c>
-      <c r="K278" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="L278" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="279" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H279" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I279" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J279" s="25">
-        <v>1</v>
-      </c>
-      <c r="K279" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L279" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="280" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H280" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I280" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J280" s="25">
-        <v>1</v>
-      </c>
-      <c r="K280" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L280" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="281" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H281" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I281" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J281" s="25">
-        <v>1</v>
-      </c>
-      <c r="K281" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L281" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="282" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H282" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I282" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J282" s="25">
-        <v>1</v>
-      </c>
-      <c r="K282" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L282" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="283" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H283" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I283" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J283" s="25">
-        <v>2</v>
-      </c>
-      <c r="K283" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="L283" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="284" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H284" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I284" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J284" s="25">
-        <v>2</v>
-      </c>
-      <c r="K284" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="L284" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="285" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H285" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I285" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J285" s="25">
-        <v>2</v>
-      </c>
-      <c r="K285" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="L285" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="286" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H286" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I286" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J286" s="25">
-        <v>2</v>
-      </c>
-      <c r="K286" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="L286" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="287" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H287" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I287" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J287" s="25">
-        <v>2</v>
-      </c>
-      <c r="K287" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="L287" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="288" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H288" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I288" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J288" s="25">
-        <v>2</v>
-      </c>
-      <c r="K288" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="L288" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="289" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H289" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I289" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J289" s="25">
-        <v>2</v>
-      </c>
-      <c r="K289" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L289" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="290" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H290" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I290" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J290" s="25">
-        <v>2</v>
-      </c>
-      <c r="K290" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L290" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="291" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H291" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I291" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J291" s="25">
-        <v>2</v>
-      </c>
-      <c r="K291" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L291" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="292" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H292" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I292" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J292" s="25">
-        <v>2</v>
-      </c>
-      <c r="K292" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L292" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="293" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H293" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="I293" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J293" s="25">
-        <v>1</v>
-      </c>
-      <c r="K293" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L293" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="294" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H294" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="I294" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J294" s="25">
-        <v>1</v>
-      </c>
-      <c r="K294" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L294" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="295" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H295" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I295" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J295" s="25">
-        <v>1</v>
-      </c>
-      <c r="K295" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L295" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="296" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H296" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I296" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J296" s="25">
-        <v>1</v>
-      </c>
-      <c r="K296" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L296" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="297" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H297" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I297" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J297" s="25">
-        <v>1</v>
-      </c>
-      <c r="K297" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L297" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="298" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H298" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I298" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J298" s="57">
-        <v>1</v>
-      </c>
-      <c r="K298" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="L298" s="57" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="299" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H299" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I299" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J299" s="57">
-        <v>1</v>
-      </c>
-      <c r="K299" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="L299" s="57" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="300" spans="8:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H300" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="I300" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J300" s="25">
-        <v>2</v>
-      </c>
-      <c r="K300" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L300" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="301" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H301" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I301" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J301" s="25">
-        <v>2</v>
-      </c>
-      <c r="K301" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L301" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="302" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H302" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I302" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J302" s="25">
-        <v>2</v>
-      </c>
-      <c r="K302" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L302" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="303" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H303" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I303" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J303" s="25">
-        <v>2</v>
-      </c>
-      <c r="K303" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L303" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="304" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H304" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I304" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J304" s="25">
-        <v>2</v>
-      </c>
-      <c r="K304" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L304" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="305" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H305" s="54"/>
-      <c r="I305" s="54"/>
-      <c r="J305" s="54"/>
-      <c r="K305" s="54"/>
-      <c r="L305" s="54"/>
-    </row>
-    <row r="306" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C306" t="s">
-        <v>32</v>
-      </c>
-      <c r="D306" t="s">
-        <v>80</v>
-      </c>
-      <c r="G306" t="s">
-        <v>21</v>
-      </c>
-      <c r="H306" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="I306" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="J306" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="K306" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="L306" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="O306" s="72"/>
-      <c r="P306" s="72"/>
-      <c r="Q306" s="72"/>
-    </row>
-    <row r="307" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H307" s="38">
-        <v>1</v>
-      </c>
-      <c r="I307" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="J307" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K307" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="L307" s="69">
-        <v>45627</v>
-      </c>
-      <c r="O307" s="54"/>
-      <c r="P307" s="54"/>
-      <c r="Q307" s="54"/>
-    </row>
-    <row r="308" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H308" s="38">
-        <v>1</v>
-      </c>
-      <c r="I308" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="J308" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K308" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L308" s="69">
-        <v>45047</v>
-      </c>
-      <c r="O308" s="54"/>
-      <c r="P308" s="54"/>
-      <c r="Q308" s="54"/>
-    </row>
-    <row r="309" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H309" s="38">
-        <v>2</v>
-      </c>
-      <c r="I309" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J309" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="K309" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="L309" s="69">
-        <v>45627</v>
-      </c>
-      <c r="O309" s="54"/>
-      <c r="P309" s="54"/>
-      <c r="Q309" s="54"/>
-    </row>
-    <row r="310" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H310" s="38">
-        <v>2</v>
-      </c>
-      <c r="I310" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J310" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="K310" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L310" s="69">
-        <v>45047</v>
-      </c>
-      <c r="O310" s="54"/>
-      <c r="P310" s="54"/>
-      <c r="Q310" s="54"/>
-    </row>
-    <row r="311" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H311" s="38">
-        <v>1</v>
-      </c>
-      <c r="I311" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="J311" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K311" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L311" s="69">
-        <v>45627</v>
-      </c>
-      <c r="O311" s="72"/>
-      <c r="P311" s="72"/>
-      <c r="Q311" s="54"/>
-    </row>
-    <row r="312" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H312" s="38">
-        <v>2</v>
-      </c>
-      <c r="I312" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="J312" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K312" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L312" s="69">
-        <v>45627</v>
-      </c>
-      <c r="O312" s="54"/>
-      <c r="P312" s="73"/>
-      <c r="Q312" s="54"/>
-    </row>
-    <row r="313" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H313" s="38">
-        <v>1</v>
-      </c>
-      <c r="I313" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J313" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K313" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L313" s="69">
-        <v>45627</v>
-      </c>
-      <c r="O313" s="54"/>
-      <c r="P313" s="73"/>
-      <c r="Q313" s="54"/>
-    </row>
-    <row r="314" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H314" s="38">
-        <v>2</v>
-      </c>
-      <c r="I314" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J314" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K314" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L314" s="69">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="315" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H315" s="38">
-        <v>1</v>
-      </c>
-      <c r="I315" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="J315" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="K315" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L315" s="69">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="316" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H316" s="38">
-        <v>2</v>
-      </c>
-      <c r="I316" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="J316" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="K316" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L316" s="69">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="317" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H317" s="38">
-        <v>1</v>
-      </c>
-      <c r="I317" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J317" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="K317" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L317" s="69">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="318" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H318" s="38">
-        <v>2</v>
-      </c>
-      <c r="I318" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J318" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="K318" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L318" s="69">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="319" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H319" s="38">
-        <v>1</v>
-      </c>
-      <c r="I319" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="J319" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K319" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="L319" s="69">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="320" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H320" s="38">
-        <v>2</v>
-      </c>
-      <c r="I320" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="J320" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K320" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="L320" s="69">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H321" s="38">
-        <v>1</v>
-      </c>
-      <c r="I321" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J321" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K321" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="L321" s="69">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H322" s="38">
-        <v>2</v>
-      </c>
-      <c r="I322" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J322" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K322" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="L322" s="69">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H323" s="38">
-        <v>1</v>
-      </c>
-      <c r="I323" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="J323" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="K323" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="L323" s="69">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H324" s="38">
-        <v>2</v>
-      </c>
-      <c r="I324" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="J324" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="K324" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="L324" s="71">
+      <c r="L290" s="69">
         <v>45413</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H325" s="38">
-        <v>1</v>
-      </c>
-      <c r="I325" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J325" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="K325" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="L325" s="71">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H326" s="38">
-        <v>2</v>
-      </c>
-      <c r="I326" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J326" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="K326" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="L326" s="71">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="34">
+    <row r="292" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="34">
         <v>13</v>
       </c>
-      <c r="B335" s="32" t="s">
+      <c r="B292" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="336" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B336" s="32" t="s">
+    <row r="293" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B293" s="32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G337" s="45"/>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B338" s="2" t="s">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G294" s="45"/>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B295" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E340" t="s">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E297" t="s">
         <v>29</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F297" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E341" t="s">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E298" t="s">
         <v>30</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F298" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H343" s="50" t="s">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H300" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="I343" s="50" t="s">
+      <c r="I300" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="J343" s="50" t="s">
+      <c r="J300" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="M343" s="51" t="s">
+      <c r="M300" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="N343" s="51" t="s">
+      <c r="N300" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="O343" s="51" t="s">
+      <c r="O300" s="51" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G344" t="s">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G301" t="s">
         <v>154</v>
       </c>
-      <c r="H344" s="48">
+      <c r="H301" s="48">
         <v>0</v>
       </c>
-      <c r="I344" s="48">
+      <c r="I301" s="48">
         <v>0</v>
       </c>
-      <c r="J344" s="48" t="b">
-        <f>OR(NOT(OR(NOT(H344), NOT(I344))),H344)</f>
+      <c r="J301" s="48" t="b">
+        <f>OR(NOT(OR(NOT(H301), NOT(I301))),H301)</f>
         <v>0</v>
       </c>
-      <c r="L344" t="s">
+      <c r="L301" t="s">
         <v>30</v>
       </c>
-      <c r="M344" s="49">
+      <c r="M301" s="49">
         <v>0</v>
       </c>
-      <c r="N344" s="49">
+      <c r="N301" s="49">
         <v>0</v>
       </c>
-      <c r="O344" s="49" t="b">
-        <f>OR(AND(NOT(M344), NOT(N344)),OR(NOT(M344), NOT(N344)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H345" s="46">
+      <c r="O301" s="49" t="b">
+        <f>OR(AND(NOT(M301), NOT(N301)),OR(NOT(M301), NOT(N301)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H302" s="46">
         <v>0</v>
       </c>
-      <c r="I345" s="46">
-        <v>1</v>
-      </c>
-      <c r="J345" s="46" t="b">
-        <f t="shared" ref="J345:J347" si="0">OR(NOT(OR(NOT(H345), NOT(I345))),H345)</f>
+      <c r="I302" s="46">
+        <v>1</v>
+      </c>
+      <c r="J302" s="46" t="b">
+        <f t="shared" ref="J302:J304" si="0">OR(NOT(OR(NOT(H302), NOT(I302))),H302)</f>
         <v>0</v>
       </c>
-      <c r="M345" s="47">
+      <c r="M302" s="47">
         <v>0</v>
       </c>
-      <c r="N345" s="47">
-        <v>1</v>
-      </c>
-      <c r="O345" s="49" t="b">
-        <f t="shared" ref="O345:O347" si="1">OR(AND(NOT(M345), NOT(N345)),OR(NOT(M345), NOT(N345)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H346" s="46">
-        <v>1</v>
-      </c>
-      <c r="I346" s="46">
+      <c r="N302" s="47">
+        <v>1</v>
+      </c>
+      <c r="O302" s="49" t="b">
+        <f t="shared" ref="O302:O304" si="1">OR(AND(NOT(M302), NOT(N302)),OR(NOT(M302), NOT(N302)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H303" s="46">
+        <v>1</v>
+      </c>
+      <c r="I303" s="46">
         <v>0</v>
       </c>
-      <c r="J346" s="46" t="b">
+      <c r="J303" s="46" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M346" s="47">
-        <v>1</v>
-      </c>
-      <c r="N346" s="47">
+      <c r="M303" s="47">
+        <v>1</v>
+      </c>
+      <c r="N303" s="47">
         <v>0</v>
       </c>
-      <c r="O346" s="49" t="b">
+      <c r="O303" s="49" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H347" s="46">
-        <v>1</v>
-      </c>
-      <c r="I347" s="46">
-        <v>1</v>
-      </c>
-      <c r="J347" s="46" t="b">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H304" s="46">
+        <v>1</v>
+      </c>
+      <c r="I304" s="46">
+        <v>1</v>
+      </c>
+      <c r="J304" s="46" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M347" s="47">
-        <v>1</v>
-      </c>
-      <c r="N347" s="47">
-        <v>1</v>
-      </c>
-      <c r="O347" s="49" t="b">
+      <c r="M304" s="47">
+        <v>1</v>
+      </c>
+      <c r="N304" s="47">
+        <v>1</v>
+      </c>
+      <c r="O304" s="49" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="34">
+        <v>14</v>
+      </c>
+      <c r="B307" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B308" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G308" s="45"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B309" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B310" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G312" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="H312" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="I312" s="57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G313" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H313" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I313" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G314" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H314" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I314" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G315" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H315" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I315" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G316" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="H316" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I316" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G317" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H317" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I317" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G318" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="H318" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I318" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B320" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G322" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="H322" s="76"/>
+      <c r="I322" s="76"/>
+      <c r="J322" s="76"/>
+      <c r="K322" s="76"/>
+      <c r="L322" s="76"/>
+      <c r="M322" s="76"/>
+      <c r="N322" s="76"/>
+      <c r="O322" s="76"/>
+      <c r="P322" s="76"/>
+      <c r="Q322" s="76"/>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G323" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="H323" s="76"/>
+      <c r="I323" s="76"/>
+      <c r="J323" s="76"/>
+      <c r="K323" s="76"/>
+      <c r="L323" s="76"/>
+      <c r="M323" s="76"/>
+      <c r="N323" s="76"/>
+      <c r="O323" s="76"/>
+      <c r="P323" s="76"/>
+      <c r="Q323" s="76"/>
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G324" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="H324" s="76"/>
+      <c r="I324" s="76"/>
+      <c r="J324" s="76"/>
+      <c r="K324" s="76"/>
+      <c r="L324" s="76"/>
+      <c r="M324" s="76"/>
+      <c r="N324" s="76"/>
+      <c r="O324" s="76"/>
+      <c r="P324" s="76"/>
+      <c r="Q324" s="76"/>
+    </row>
+    <row r="326" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="34">
+        <v>15</v>
+      </c>
+      <c r="B326" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G327" s="80"/>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F328" s="79"/>
+      <c r="G328" s="77"/>
+      <c r="H328" s="81"/>
+      <c r="I328" s="52"/>
+      <c r="J328" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="K328" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="L328" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="O328" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="P328" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q328" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G329" s="77"/>
+      <c r="H329" s="52"/>
+      <c r="I329" s="52"/>
+      <c r="J329" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="K329" s="75">
+        <v>15000</v>
+      </c>
+      <c r="L329" s="75">
+        <v>1</v>
+      </c>
+      <c r="O329" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="P329" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q329" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G330" s="77"/>
+      <c r="H330" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I330" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J330" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="K330" s="75">
+        <v>30000</v>
+      </c>
+      <c r="L330" s="75">
+        <v>1</v>
+      </c>
+      <c r="N330" t="s">
+        <v>65</v>
+      </c>
+      <c r="O330" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P330" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q330" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G331" s="77"/>
+      <c r="H331" s="52"/>
+      <c r="I331" s="52"/>
+      <c r="J331" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="K331" s="75">
+        <v>60000</v>
+      </c>
+      <c r="L331" s="75">
+        <v>1</v>
+      </c>
+      <c r="O331" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P331" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q331" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G332" s="77"/>
+      <c r="H332" s="52"/>
+      <c r="I332" s="52"/>
+      <c r="J332" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="K332" s="75">
+        <v>17000</v>
+      </c>
+      <c r="L332" s="75">
+        <v>1</v>
+      </c>
+      <c r="O332" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P332" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q332" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G333" s="77"/>
+      <c r="H333" s="52"/>
+      <c r="I333" s="52"/>
+      <c r="J333" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="K333" s="75">
+        <v>23000</v>
+      </c>
+      <c r="L333" s="75">
+        <v>1</v>
+      </c>
+      <c r="O333" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P333" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q333" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G334" s="77"/>
+      <c r="H334" s="52"/>
+      <c r="I334" s="52"/>
+      <c r="J334" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="K334" s="75">
+        <v>25000</v>
+      </c>
+      <c r="L334" s="75">
+        <v>2</v>
+      </c>
+      <c r="O334" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P334" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q334" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E335" s="79"/>
+      <c r="F335" s="79"/>
+      <c r="G335" s="77"/>
+      <c r="H335" s="81"/>
+      <c r="I335" s="52"/>
+      <c r="J335" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="K335" s="75">
+        <v>32000</v>
+      </c>
+      <c r="L335" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G336" s="77"/>
+      <c r="H336" s="52"/>
+      <c r="I336" s="52"/>
+      <c r="J336" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K336" s="75">
+        <v>16000</v>
+      </c>
+      <c r="L336" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G337" s="77"/>
+      <c r="H337" s="52"/>
+      <c r="I337" s="52"/>
+      <c r="J337" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="K337" s="75">
+        <v>20000</v>
+      </c>
+      <c r="L337" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G338" s="77"/>
+      <c r="H338" s="52"/>
+      <c r="I338" s="52"/>
+      <c r="J338" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="K338" s="75">
+        <v>40000</v>
+      </c>
+      <c r="L338" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G339" s="77"/>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G340" s="77"/>
+      <c r="H340" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="I340" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="J340" s="83"/>
+      <c r="K340" s="82"/>
+      <c r="L340" s="82"/>
+      <c r="M340" s="82"/>
+      <c r="N340" s="82"/>
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G341" s="77"/>
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G342" s="77"/>
+      <c r="H342" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="I342" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="J342" s="82"/>
+      <c r="K342" s="82"/>
+      <c r="L342" s="77"/>
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G343" s="77"/>
+    </row>
+    <row r="344" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="34">
+        <v>16</v>
+      </c>
+      <c r="B344" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G344" s="78"/>
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G345" s="77"/>
+    </row>
+    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G346" s="77"/>
+      <c r="H346" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="I346" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="J346" s="84"/>
+      <c r="K346" s="84"/>
+      <c r="L346" s="84"/>
+      <c r="M346" s="84"/>
+      <c r="N346" s="84"/>
+      <c r="O346" s="84"/>
+      <c r="P346" s="84"/>
+      <c r="Q346" s="84"/>
+      <c r="R346" s="84"/>
+    </row>
+    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G347" s="77"/>
+    </row>
+    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G348" s="77"/>
+      <c r="H348" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="I348" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="J348" s="84"/>
+      <c r="K348" s="84"/>
+      <c r="L348" s="84"/>
+      <c r="M348" s="84"/>
+      <c r="N348" s="84"/>
+      <c r="O348" s="84"/>
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G349" s="77"/>
+    </row>
+    <row r="350" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B350" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B351" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G351" s="45"/>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B352" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G350" s="78"/>
+    </row>
+    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G351" s="77"/>
+    </row>
+    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G352" s="77"/>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B353" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="G353" s="77"/>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G354" s="77"/>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B355" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="33">
-        <v>15</v>
-      </c>
-      <c r="B357" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G358" s="45"/>
-    </row>
-    <row r="359" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="33">
-        <v>16</v>
-      </c>
-      <c r="B359" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="G355" s="77"/>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G356" s="77"/>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G357" s="77"/>
+    </row>
+    <row r="358" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="33">
+        <v>18</v>
+      </c>
+      <c r="B358" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G358" s="78"/>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G359" s="77"/>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G360" s="45"/>
-    </row>
-    <row r="361" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="33">
-        <v>17</v>
-      </c>
-      <c r="B361" s="32" t="s">
-        <v>88</v>
-      </c>
+      <c r="G360" s="77"/>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G361" s="77"/>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G362" s="45"/>
-    </row>
-    <row r="363" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="33">
-        <v>18</v>
-      </c>
-      <c r="B363" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="G362" s="77"/>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G363" s="77"/>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G364" s="45"/>
-    </row>
-    <row r="365" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="33">
+      <c r="G364" s="77"/>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G365" s="77"/>
+    </row>
+    <row r="366" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="33">
         <v>19</v>
       </c>
-      <c r="B365" s="32" t="s">
+      <c r="B366" s="32" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G366" s="45"/>
+      <c r="G366" s="78"/>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H367" s="10"/>
-      <c r="I367" s="10"/>
-      <c r="J367" s="10"/>
-      <c r="K367" s="10"/>
-      <c r="L367" s="10"/>
-      <c r="M367" s="10"/>
+      <c r="G367" s="77"/>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G368" s="79"/>
+      <c r="H368" s="10"/>
+      <c r="I368" s="10"/>
+      <c r="J368" s="10"/>
+      <c r="K368" s="10"/>
+      <c r="L368" s="10"/>
+      <c r="M368" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Problems1-24-Autumn.xlsx
+++ b/Problems1-24-Autumn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/MIPT/2024:2025/Data base/DB_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3422EC14-920F-EE46-95FC-9CE1432913CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB38A05-B8BC-7A4E-9B9A-765555AF2750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="219">
   <si>
     <t>}</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>{ANIMATE, SEASON} -&gt; {HOTEL, SEASON}, {ANIMATE, SEASON} -&gt; {HOTEL, ANIMATE}</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -764,7 +767,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,12 +777,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,8 +876,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE1FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -940,24 +949,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -983,100 +979,104 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1085,6 +1085,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFDAD3"/>
+      <color rgb="FFB9FFD4"/>
+      <color rgb="FFFFE1FF"/>
       <color rgb="FFFFEADF"/>
       <color rgb="FFC4FFE5"/>
     </mruColors>
@@ -1398,10 +1401,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C63A9C-52B5-48DD-AFC1-6117206D7AE1}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:AR368"/>
+  <dimension ref="A2:AR389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" zoomScale="200" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N341" sqref="N341"/>
+    <sheetView tabSelected="1" topLeftCell="D229" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P245" sqref="P245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1725,15 +1728,15 @@
     </row>
     <row r="20" spans="1:44" ht="23" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="H22" s="6">
@@ -4180,13 +4183,13 @@
       <c r="G212" t="s">
         <v>21</v>
       </c>
-      <c r="H212" s="62" t="s">
+      <c r="H212" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="I212" s="63" t="s">
+      <c r="I212" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="J212" s="63" t="s">
+      <c r="J212" s="62" t="s">
         <v>142</v>
       </c>
       <c r="K212" s="40" t="s">
@@ -4197,13 +4200,13 @@
       </c>
     </row>
     <row r="213" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H213" s="64" t="s">
+      <c r="H213" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="I213" s="65">
+      <c r="I213" s="64">
         <v>15000</v>
       </c>
-      <c r="J213" s="65">
+      <c r="J213" s="64">
         <v>1</v>
       </c>
       <c r="K213" s="36" t="s">
@@ -4214,13 +4217,13 @@
       </c>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H214" s="64" t="s">
+      <c r="H214" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="I214" s="65">
+      <c r="I214" s="64">
         <v>30000</v>
       </c>
-      <c r="J214" s="65">
+      <c r="J214" s="64">
         <v>1</v>
       </c>
       <c r="K214" s="36" t="s">
@@ -4231,13 +4234,13 @@
       </c>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H215" s="64" t="s">
+      <c r="H215" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="I215" s="65">
+      <c r="I215" s="64">
         <v>60000</v>
       </c>
-      <c r="J215" s="65">
+      <c r="J215" s="64">
         <v>1</v>
       </c>
       <c r="K215" s="36" t="s">
@@ -4248,13 +4251,13 @@
       </c>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H216" s="64" t="s">
+      <c r="H216" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="I216" s="65">
+      <c r="I216" s="64">
         <v>17000</v>
       </c>
-      <c r="J216" s="65">
+      <c r="J216" s="64">
         <v>1</v>
       </c>
       <c r="K216" s="36" t="s">
@@ -4265,13 +4268,13 @@
       </c>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H217" s="64" t="s">
+      <c r="H217" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="I217" s="65">
+      <c r="I217" s="64">
         <v>23000</v>
       </c>
-      <c r="J217" s="65">
+      <c r="J217" s="64">
         <v>1</v>
       </c>
       <c r="K217" s="36" t="s">
@@ -4282,13 +4285,13 @@
       </c>
     </row>
     <row r="218" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H218" s="64" t="s">
+      <c r="H218" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="I218" s="65">
+      <c r="I218" s="64">
         <v>25000</v>
       </c>
-      <c r="J218" s="65">
+      <c r="J218" s="64">
         <v>2</v>
       </c>
       <c r="K218" s="36" t="s">
@@ -4299,13 +4302,13 @@
       </c>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H219" s="64" t="s">
+      <c r="H219" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="I219" s="65">
+      <c r="I219" s="64">
         <v>32000</v>
       </c>
-      <c r="J219" s="65">
+      <c r="J219" s="64">
         <v>2</v>
       </c>
       <c r="K219" s="36" t="s">
@@ -4316,13 +4319,13 @@
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H220" s="64" t="s">
+      <c r="H220" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="I220" s="65">
+      <c r="I220" s="64">
         <v>16000</v>
       </c>
-      <c r="J220" s="65">
+      <c r="J220" s="64">
         <v>2</v>
       </c>
       <c r="K220" s="36" t="s">
@@ -4333,13 +4336,13 @@
       </c>
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H221" s="64" t="s">
+      <c r="H221" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="I221" s="65">
+      <c r="I221" s="64">
         <v>20000</v>
       </c>
-      <c r="J221" s="65">
+      <c r="J221" s="64">
         <v>2</v>
       </c>
       <c r="K221" s="36" t="s">
@@ -4350,13 +4353,13 @@
       </c>
     </row>
     <row r="222" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H222" s="64" t="s">
+      <c r="H222" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="I222" s="65">
+      <c r="I222" s="64">
         <v>40000</v>
       </c>
-      <c r="J222" s="65">
+      <c r="J222" s="64">
         <v>2</v>
       </c>
       <c r="K222" s="36" t="s">
@@ -4367,9 +4370,9 @@
       </c>
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H223" s="52"/>
-      <c r="I223" s="52"/>
-      <c r="J223" s="52"/>
+      <c r="H223" s="51"/>
+      <c r="I223" s="51"/>
+      <c r="J223" s="51"/>
     </row>
     <row r="224" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C224" t="s">
@@ -4381,121 +4384,121 @@
       <c r="G224" t="s">
         <v>21</v>
       </c>
-      <c r="H224" s="56" t="s">
+      <c r="H224" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="I224" s="57" t="s">
+      <c r="I224" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="J224" s="57" t="s">
+      <c r="J224" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="K224" s="58" t="s">
+      <c r="K224" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="L224" s="58" t="s">
+      <c r="L224" s="57" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="225" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H225" s="59" t="s">
+      <c r="H225" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="I225" s="60" t="s">
+      <c r="I225" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="J225" s="60">
-        <v>2</v>
-      </c>
-      <c r="K225" s="61" t="s">
+      <c r="J225" s="59">
+        <v>2</v>
+      </c>
+      <c r="K225" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="L225" s="61" t="s">
+      <c r="L225" s="60" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="226" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H226" s="59" t="s">
+      <c r="H226" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="I226" s="60" t="s">
+      <c r="I226" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="J226" s="60">
-        <v>1</v>
-      </c>
-      <c r="K226" s="61" t="s">
+      <c r="J226" s="59">
+        <v>1</v>
+      </c>
+      <c r="K226" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="L226" s="61" t="s">
+      <c r="L226" s="60" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="227" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H227" s="59" t="s">
+      <c r="H227" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="I227" s="60" t="s">
+      <c r="I227" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="J227" s="60">
-        <v>2</v>
-      </c>
-      <c r="K227" s="61" t="s">
+      <c r="J227" s="59">
+        <v>2</v>
+      </c>
+      <c r="K227" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="L227" s="61" t="s">
+      <c r="L227" s="60" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="228" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H228" s="59" t="s">
+      <c r="H228" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I228" s="60" t="s">
+      <c r="I228" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="J228" s="60">
-        <v>1</v>
-      </c>
-      <c r="K228" s="61" t="s">
+      <c r="J228" s="59">
+        <v>1</v>
+      </c>
+      <c r="K228" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="L228" s="61" t="s">
+      <c r="L228" s="60" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="229" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H229" s="59" t="s">
+      <c r="H229" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="I229" s="60" t="s">
+      <c r="I229" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="J229" s="60">
-        <v>1</v>
-      </c>
-      <c r="K229" s="61" t="s">
+      <c r="J229" s="59">
+        <v>1</v>
+      </c>
+      <c r="K229" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="L229" s="61" t="s">
+      <c r="L229" s="60" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="230" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H230" s="59" t="s">
+      <c r="H230" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="I230" s="60" t="s">
+      <c r="I230" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="J230" s="60">
-        <v>2</v>
-      </c>
-      <c r="K230" s="61" t="s">
+      <c r="J230" s="59">
+        <v>2</v>
+      </c>
+      <c r="K230" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="L230" s="61" t="s">
+      <c r="L230" s="60" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4509,30 +4512,30 @@
       <c r="G232" t="s">
         <v>21</v>
       </c>
-      <c r="H232" s="53" t="s">
+      <c r="H232" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="I232" s="53" t="s">
+      <c r="I232" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="J232" s="53" t="s">
+      <c r="J232" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="K232" s="54" t="s">
+      <c r="K232" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="L232" s="54" t="s">
+      <c r="L232" s="53" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="233" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H233" s="55" t="s">
+      <c r="H233" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="I233" s="55" t="s">
+      <c r="I233" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J233" s="55">
+      <c r="J233" s="54">
         <v>2</v>
       </c>
       <c r="K233" s="25" t="s">
@@ -4543,13 +4546,13 @@
       </c>
     </row>
     <row r="234" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H234" s="55" t="s">
+      <c r="H234" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="I234" s="55" t="s">
+      <c r="I234" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J234" s="55">
+      <c r="J234" s="54">
         <v>2</v>
       </c>
       <c r="K234" s="25" t="s">
@@ -4560,13 +4563,13 @@
       </c>
     </row>
     <row r="235" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H235" s="55" t="s">
+      <c r="H235" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="I235" s="55" t="s">
+      <c r="I235" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J235" s="55">
+      <c r="J235" s="54">
         <v>2</v>
       </c>
       <c r="K235" s="25" t="s">
@@ -4577,13 +4580,13 @@
       </c>
     </row>
     <row r="236" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H236" s="55" t="s">
+      <c r="H236" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="I236" s="55" t="s">
+      <c r="I236" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J236" s="55">
+      <c r="J236" s="54">
         <v>2</v>
       </c>
       <c r="K236" s="25" t="s">
@@ -4934,7 +4937,7 @@
       </c>
     </row>
     <row r="257" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H257" s="55" t="s">
+      <c r="H257" s="54" t="s">
         <v>144</v>
       </c>
       <c r="I257" s="25" t="s">
@@ -4951,7 +4954,7 @@
       </c>
     </row>
     <row r="258" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H258" s="55" t="s">
+      <c r="H258" s="54" t="s">
         <v>144</v>
       </c>
       <c r="I258" s="25" t="s">
@@ -5025,13 +5028,13 @@
       <c r="I262" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J262" s="55">
-        <v>1</v>
-      </c>
-      <c r="K262" s="55" t="s">
+      <c r="J262" s="54">
+        <v>1</v>
+      </c>
+      <c r="K262" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="L262" s="55" t="s">
+      <c r="L262" s="54" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5042,18 +5045,18 @@
       <c r="I263" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="J263" s="55">
-        <v>1</v>
-      </c>
-      <c r="K263" s="55" t="s">
+      <c r="J263" s="54">
+        <v>1</v>
+      </c>
+      <c r="K263" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="L263" s="55" t="s">
+      <c r="L263" s="54" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="264" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="H264" s="55" t="s">
+      <c r="H264" s="54" t="s">
         <v>144</v>
       </c>
       <c r="I264" s="25" t="s">
@@ -5147,19 +5150,19 @@
       <c r="G270" t="s">
         <v>21</v>
       </c>
-      <c r="H270" s="66" t="s">
+      <c r="H270" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="I270" s="66" t="s">
+      <c r="I270" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="J270" s="66" t="s">
+      <c r="J270" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="K270" s="66" t="s">
+      <c r="K270" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="L270" s="66" t="s">
+      <c r="L270" s="65" t="s">
         <v>79</v>
       </c>
       <c r="O270" s="10"/>
@@ -5179,7 +5182,7 @@
       <c r="K271" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="L271" s="67">
+      <c r="L271" s="66">
         <v>45627</v>
       </c>
     </row>
@@ -5196,7 +5199,7 @@
       <c r="K272" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L272" s="67">
+      <c r="L272" s="66">
         <v>45047</v>
       </c>
     </row>
@@ -5213,7 +5216,7 @@
       <c r="K273" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="L273" s="67">
+      <c r="L273" s="66">
         <v>45627</v>
       </c>
     </row>
@@ -5230,7 +5233,7 @@
       <c r="K274" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L274" s="67">
+      <c r="L274" s="66">
         <v>45047</v>
       </c>
     </row>
@@ -5247,7 +5250,7 @@
       <c r="K275" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L275" s="67">
+      <c r="L275" s="66">
         <v>45627</v>
       </c>
       <c r="O275" s="10"/>
@@ -5266,10 +5269,10 @@
       <c r="K276" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L276" s="67">
+      <c r="L276" s="66">
         <v>45627</v>
       </c>
-      <c r="P276" s="70"/>
+      <c r="P276" s="69"/>
     </row>
     <row r="277" spans="8:16" x14ac:dyDescent="0.2">
       <c r="H277" s="38">
@@ -5284,10 +5287,10 @@
       <c r="K277" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L277" s="67">
+      <c r="L277" s="66">
         <v>45627</v>
       </c>
-      <c r="P277" s="70"/>
+      <c r="P277" s="69"/>
     </row>
     <row r="278" spans="8:16" x14ac:dyDescent="0.2">
       <c r="H278" s="38">
@@ -5302,7 +5305,7 @@
       <c r="K278" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L278" s="67">
+      <c r="L278" s="66">
         <v>45627</v>
       </c>
     </row>
@@ -5319,7 +5322,7 @@
       <c r="K279" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L279" s="67">
+      <c r="L279" s="66">
         <v>45627</v>
       </c>
     </row>
@@ -5336,7 +5339,7 @@
       <c r="K280" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L280" s="67">
+      <c r="L280" s="66">
         <v>45627</v>
       </c>
     </row>
@@ -5353,7 +5356,7 @@
       <c r="K281" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L281" s="67">
+      <c r="L281" s="66">
         <v>45627</v>
       </c>
     </row>
@@ -5370,7 +5373,7 @@
       <c r="K282" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L282" s="67">
+      <c r="L282" s="66">
         <v>45627</v>
       </c>
     </row>
@@ -5387,7 +5390,7 @@
       <c r="K283" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="L283" s="67">
+      <c r="L283" s="66">
         <v>45047</v>
       </c>
     </row>
@@ -5404,7 +5407,7 @@
       <c r="K284" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="L284" s="67">
+      <c r="L284" s="66">
         <v>45047</v>
       </c>
     </row>
@@ -5421,7 +5424,7 @@
       <c r="K285" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="L285" s="67">
+      <c r="L285" s="66">
         <v>45047</v>
       </c>
     </row>
@@ -5438,7 +5441,7 @@
       <c r="K286" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="L286" s="67">
+      <c r="L286" s="66">
         <v>45047</v>
       </c>
     </row>
@@ -5455,7 +5458,7 @@
       <c r="K287" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="L287" s="67">
+      <c r="L287" s="66">
         <v>45047</v>
       </c>
     </row>
@@ -5469,10 +5472,10 @@
       <c r="J288" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="K288" s="68" t="s">
+      <c r="K288" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="L288" s="69">
+      <c r="L288" s="68">
         <v>45413</v>
       </c>
     </row>
@@ -5486,10 +5489,10 @@
       <c r="J289" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="K289" s="68" t="s">
+      <c r="K289" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="L289" s="69">
+      <c r="L289" s="68">
         <v>45413</v>
       </c>
     </row>
@@ -5503,10 +5506,10 @@
       <c r="J290" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="K290" s="68" t="s">
+      <c r="K290" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="L290" s="69">
+      <c r="L290" s="68">
         <v>45413</v>
       </c>
     </row>
@@ -5524,7 +5527,7 @@
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G294" s="45"/>
+      <c r="G294" s="88"/>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B295" s="2" t="s">
@@ -5548,22 +5551,22 @@
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H300" s="50" t="s">
+      <c r="H300" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="I300" s="50" t="s">
+      <c r="I300" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="J300" s="50" t="s">
+      <c r="J300" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="M300" s="51" t="s">
+      <c r="M300" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="N300" s="51" t="s">
+      <c r="N300" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="O300" s="51" t="s">
+      <c r="O300" s="50" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5571,92 +5574,92 @@
       <c r="G301" t="s">
         <v>154</v>
       </c>
-      <c r="H301" s="48">
+      <c r="H301" s="47">
         <v>0</v>
       </c>
-      <c r="I301" s="48">
+      <c r="I301" s="47">
         <v>0</v>
       </c>
-      <c r="J301" s="48" t="b">
+      <c r="J301" s="47" t="b">
         <f>OR(NOT(OR(NOT(H301), NOT(I301))),H301)</f>
         <v>0</v>
       </c>
       <c r="L301" t="s">
         <v>30</v>
       </c>
-      <c r="M301" s="49">
+      <c r="M301" s="48">
         <v>0</v>
       </c>
-      <c r="N301" s="49">
+      <c r="N301" s="48">
         <v>0</v>
       </c>
-      <c r="O301" s="49" t="b">
+      <c r="O301" s="48" t="b">
         <f>OR(AND(NOT(M301), NOT(N301)),OR(NOT(M301), NOT(N301)))</f>
         <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H302" s="46">
+      <c r="H302" s="45">
         <v>0</v>
       </c>
-      <c r="I302" s="46">
-        <v>1</v>
-      </c>
-      <c r="J302" s="46" t="b">
+      <c r="I302" s="45">
+        <v>1</v>
+      </c>
+      <c r="J302" s="45" t="b">
         <f t="shared" ref="J302:J304" si="0">OR(NOT(OR(NOT(H302), NOT(I302))),H302)</f>
         <v>0</v>
       </c>
-      <c r="M302" s="47">
+      <c r="M302" s="46">
         <v>0</v>
       </c>
-      <c r="N302" s="47">
-        <v>1</v>
-      </c>
-      <c r="O302" s="49" t="b">
+      <c r="N302" s="46">
+        <v>1</v>
+      </c>
+      <c r="O302" s="48" t="b">
         <f t="shared" ref="O302:O304" si="1">OR(AND(NOT(M302), NOT(N302)),OR(NOT(M302), NOT(N302)))</f>
         <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H303" s="46">
-        <v>1</v>
-      </c>
-      <c r="I303" s="46">
+      <c r="H303" s="45">
+        <v>1</v>
+      </c>
+      <c r="I303" s="45">
         <v>0</v>
       </c>
-      <c r="J303" s="46" t="b">
+      <c r="J303" s="45" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M303" s="47">
-        <v>1</v>
-      </c>
-      <c r="N303" s="47">
+      <c r="M303" s="46">
+        <v>1</v>
+      </c>
+      <c r="N303" s="46">
         <v>0</v>
       </c>
-      <c r="O303" s="49" t="b">
+      <c r="O303" s="48" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H304" s="46">
-        <v>1</v>
-      </c>
-      <c r="I304" s="46">
-        <v>1</v>
-      </c>
-      <c r="J304" s="46" t="b">
+      <c r="H304" s="45">
+        <v>1</v>
+      </c>
+      <c r="I304" s="45">
+        <v>1</v>
+      </c>
+      <c r="J304" s="45" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M304" s="47">
-        <v>1</v>
-      </c>
-      <c r="N304" s="47">
-        <v>1</v>
-      </c>
-      <c r="O304" s="49" t="b">
+      <c r="M304" s="46">
+        <v>1</v>
+      </c>
+      <c r="N304" s="46">
+        <v>1</v>
+      </c>
+      <c r="O304" s="48" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5673,7 +5676,7 @@
       <c r="B308" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G308" s="45"/>
+      <c r="G308" s="88"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B309" s="2" t="s">
@@ -5686,79 +5689,79 @@
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G312" s="56" t="s">
+      <c r="G312" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="H312" s="57" t="s">
+      <c r="H312" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="I312" s="57" t="s">
+      <c r="I312" s="56" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G313" s="59" t="s">
+      <c r="G313" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="H313" s="60" t="s">
+      <c r="H313" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="I313" s="60">
+      <c r="I313" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G314" s="59" t="s">
+      <c r="G314" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="H314" s="60" t="s">
+      <c r="H314" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="I314" s="60">
+      <c r="I314" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G315" s="59" t="s">
+      <c r="G315" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="H315" s="60" t="s">
+      <c r="H315" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="I315" s="60">
+      <c r="I315" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G316" s="59" t="s">
+      <c r="G316" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="H316" s="60" t="s">
+      <c r="H316" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="I316" s="60">
+      <c r="I316" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G317" s="59" t="s">
+      <c r="G317" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="H317" s="60" t="s">
+      <c r="H317" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="I317" s="60">
+      <c r="I317" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G318" s="59" t="s">
+      <c r="G318" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="H318" s="60" t="s">
+      <c r="H318" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="I318" s="60">
+      <c r="I318" s="59">
         <v>2</v>
       </c>
     </row>
@@ -5768,49 +5771,49 @@
       </c>
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G322" s="76" t="s">
+      <c r="G322" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="H322" s="76"/>
-      <c r="I322" s="76"/>
-      <c r="J322" s="76"/>
-      <c r="K322" s="76"/>
-      <c r="L322" s="76"/>
-      <c r="M322" s="76"/>
-      <c r="N322" s="76"/>
-      <c r="O322" s="76"/>
-      <c r="P322" s="76"/>
-      <c r="Q322" s="76"/>
+      <c r="H322" s="74"/>
+      <c r="I322" s="74"/>
+      <c r="J322" s="74"/>
+      <c r="K322" s="74"/>
+      <c r="L322" s="74"/>
+      <c r="M322" s="74"/>
+      <c r="N322" s="74"/>
+      <c r="O322" s="74"/>
+      <c r="P322" s="74"/>
+      <c r="Q322" s="74"/>
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G323" s="76" t="s">
+      <c r="G323" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="H323" s="76"/>
-      <c r="I323" s="76"/>
-      <c r="J323" s="76"/>
-      <c r="K323" s="76"/>
-      <c r="L323" s="76"/>
-      <c r="M323" s="76"/>
-      <c r="N323" s="76"/>
-      <c r="O323" s="76"/>
-      <c r="P323" s="76"/>
-      <c r="Q323" s="76"/>
+      <c r="H323" s="74"/>
+      <c r="I323" s="74"/>
+      <c r="J323" s="74"/>
+      <c r="K323" s="74"/>
+      <c r="L323" s="74"/>
+      <c r="M323" s="74"/>
+      <c r="N323" s="74"/>
+      <c r="O323" s="74"/>
+      <c r="P323" s="74"/>
+      <c r="Q323" s="74"/>
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G324" s="76" t="s">
+      <c r="G324" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="H324" s="76"/>
-      <c r="I324" s="76"/>
-      <c r="J324" s="76"/>
-      <c r="K324" s="76"/>
-      <c r="L324" s="76"/>
-      <c r="M324" s="76"/>
-      <c r="N324" s="76"/>
-      <c r="O324" s="76"/>
-      <c r="P324" s="76"/>
-      <c r="Q324" s="76"/>
+      <c r="H324" s="74"/>
+      <c r="I324" s="74"/>
+      <c r="J324" s="74"/>
+      <c r="K324" s="74"/>
+      <c r="L324" s="74"/>
+      <c r="M324" s="74"/>
+      <c r="N324" s="74"/>
+      <c r="O324" s="74"/>
+      <c r="P324" s="74"/>
+      <c r="Q324" s="74"/>
     </row>
     <row r="326" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="34">
@@ -5821,20 +5824,19 @@
       </c>
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G327" s="80"/>
+      <c r="G327" s="87"/>
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F328" s="79"/>
-      <c r="G328" s="77"/>
-      <c r="H328" s="81"/>
-      <c r="I328" s="52"/>
-      <c r="J328" s="72" t="s">
+      <c r="G328" s="88"/>
+      <c r="H328" s="51"/>
+      <c r="I328" s="51"/>
+      <c r="J328" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="K328" s="73" t="s">
+      <c r="K328" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="L328" s="73" t="s">
+      <c r="L328" s="71" t="s">
         <v>142</v>
       </c>
       <c r="O328" s="8" t="s">
@@ -5848,16 +5850,16 @@
       </c>
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G329" s="77"/>
-      <c r="H329" s="52"/>
-      <c r="I329" s="52"/>
-      <c r="J329" s="74" t="s">
+      <c r="G329" s="88"/>
+      <c r="H329" s="51"/>
+      <c r="I329" s="51"/>
+      <c r="J329" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K329" s="75">
+      <c r="K329" s="73">
         <v>15000</v>
       </c>
-      <c r="L329" s="75">
+      <c r="L329" s="73">
         <v>1</v>
       </c>
       <c r="O329" s="6" t="s">
@@ -5871,20 +5873,20 @@
       </c>
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G330" s="77"/>
-      <c r="H330" s="52" t="s">
+      <c r="G330" s="88"/>
+      <c r="H330" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="I330" s="52" t="s">
+      <c r="I330" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J330" s="74" t="s">
+      <c r="J330" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="K330" s="75">
+      <c r="K330" s="73">
         <v>30000</v>
       </c>
-      <c r="L330" s="75">
+      <c r="L330" s="73">
         <v>1</v>
       </c>
       <c r="N330" t="s">
@@ -5901,16 +5903,16 @@
       </c>
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G331" s="77"/>
-      <c r="H331" s="52"/>
-      <c r="I331" s="52"/>
-      <c r="J331" s="74" t="s">
+      <c r="G331" s="88"/>
+      <c r="H331" s="51"/>
+      <c r="I331" s="51"/>
+      <c r="J331" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="K331" s="75">
+      <c r="K331" s="73">
         <v>60000</v>
       </c>
-      <c r="L331" s="75">
+      <c r="L331" s="73">
         <v>1</v>
       </c>
       <c r="O331" s="6" t="s">
@@ -5924,16 +5926,16 @@
       </c>
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G332" s="77"/>
-      <c r="H332" s="52"/>
-      <c r="I332" s="52"/>
-      <c r="J332" s="74" t="s">
+      <c r="G332" s="88"/>
+      <c r="H332" s="51"/>
+      <c r="I332" s="51"/>
+      <c r="J332" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="K332" s="75">
+      <c r="K332" s="73">
         <v>17000</v>
       </c>
-      <c r="L332" s="75">
+      <c r="L332" s="73">
         <v>1</v>
       </c>
       <c r="O332" s="6" t="s">
@@ -5947,16 +5949,16 @@
       </c>
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G333" s="77"/>
-      <c r="H333" s="52"/>
-      <c r="I333" s="52"/>
-      <c r="J333" s="74" t="s">
+      <c r="G333" s="88"/>
+      <c r="H333" s="51"/>
+      <c r="I333" s="51"/>
+      <c r="J333" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="K333" s="75">
+      <c r="K333" s="73">
         <v>23000</v>
       </c>
-      <c r="L333" s="75">
+      <c r="L333" s="73">
         <v>1</v>
       </c>
       <c r="O333" s="6" t="s">
@@ -5970,16 +5972,16 @@
       </c>
     </row>
     <row r="334" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G334" s="77"/>
-      <c r="H334" s="52"/>
-      <c r="I334" s="52"/>
-      <c r="J334" s="74" t="s">
+      <c r="G334" s="88"/>
+      <c r="H334" s="51"/>
+      <c r="I334" s="51"/>
+      <c r="J334" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="K334" s="75">
+      <c r="K334" s="73">
         <v>25000</v>
       </c>
-      <c r="L334" s="75">
+      <c r="L334" s="73">
         <v>2</v>
       </c>
       <c r="O334" s="6" t="s">
@@ -5993,97 +5995,97 @@
       </c>
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E335" s="79"/>
-      <c r="F335" s="79"/>
-      <c r="G335" s="77"/>
-      <c r="H335" s="81"/>
-      <c r="I335" s="52"/>
-      <c r="J335" s="74" t="s">
+      <c r="G335" s="88"/>
+      <c r="H335" s="51"/>
+      <c r="I335" s="51"/>
+      <c r="J335" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="K335" s="75">
+      <c r="K335" s="73">
         <v>32000</v>
       </c>
-      <c r="L335" s="75">
+      <c r="L335" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G336" s="77"/>
-      <c r="H336" s="52"/>
-      <c r="I336" s="52"/>
-      <c r="J336" s="74" t="s">
+      <c r="G336" s="88"/>
+      <c r="H336" s="51"/>
+      <c r="I336" s="51"/>
+      <c r="J336" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="K336" s="75">
+      <c r="K336" s="73">
         <v>16000</v>
       </c>
-      <c r="L336" s="75">
+      <c r="L336" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G337" s="77"/>
-      <c r="H337" s="52"/>
-      <c r="I337" s="52"/>
-      <c r="J337" s="74" t="s">
+      <c r="G337" s="88"/>
+      <c r="H337" s="51"/>
+      <c r="I337" s="51"/>
+      <c r="J337" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="K337" s="75">
+      <c r="K337" s="73">
         <v>20000</v>
       </c>
-      <c r="L337" s="75">
+      <c r="L337" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G338" s="77"/>
-      <c r="H338" s="52"/>
-      <c r="I338" s="52"/>
-      <c r="J338" s="74" t="s">
+      <c r="G338" s="88"/>
+      <c r="H338" s="51"/>
+      <c r="I338" s="51"/>
+      <c r="J338" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="K338" s="75">
+      <c r="K338" s="73">
         <v>40000</v>
       </c>
-      <c r="L338" s="75">
+      <c r="L338" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G339" s="77"/>
+      <c r="G339" s="88"/>
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G340" s="77"/>
-      <c r="H340" s="82" t="s">
+      <c r="G340" s="88"/>
+      <c r="H340" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="I340" s="82" t="s">
+      <c r="I340" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="J340" s="83"/>
-      <c r="K340" s="82"/>
-      <c r="L340" s="82"/>
-      <c r="M340" s="82"/>
-      <c r="N340" s="82"/>
+      <c r="J340" s="76"/>
+      <c r="K340" s="75"/>
+      <c r="L340" s="75"/>
+      <c r="M340" s="75"/>
+      <c r="N340" s="75"/>
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G341" s="77"/>
+      <c r="G341" s="88"/>
+      <c r="L341" s="88"/>
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G342" s="77"/>
-      <c r="H342" s="82" t="s">
+      <c r="G342" s="88"/>
+      <c r="H342" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="I342" s="82" t="s">
+      <c r="I342" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="J342" s="82"/>
-      <c r="K342" s="82"/>
-      <c r="L342" s="77"/>
+      <c r="J342" s="75"/>
+      <c r="K342" s="75"/>
+      <c r="L342" s="88"/>
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G343" s="77"/>
+      <c r="G343" s="88"/>
+      <c r="L343" s="88"/>
     </row>
     <row r="344" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="34">
@@ -6092,49 +6094,48 @@
       <c r="B344" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="G344" s="78"/>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G345" s="77"/>
+      <c r="G345" s="88"/>
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G346" s="77"/>
-      <c r="H346" s="84" t="s">
+      <c r="G346" s="88"/>
+      <c r="H346" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="I346" s="84" t="s">
+      <c r="I346" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="J346" s="84"/>
-      <c r="K346" s="84"/>
-      <c r="L346" s="84"/>
-      <c r="M346" s="84"/>
-      <c r="N346" s="84"/>
-      <c r="O346" s="84"/>
-      <c r="P346" s="84"/>
-      <c r="Q346" s="84"/>
-      <c r="R346" s="84"/>
+      <c r="J346" s="77"/>
+      <c r="K346" s="77"/>
+      <c r="L346" s="77"/>
+      <c r="M346" s="77"/>
+      <c r="N346" s="77"/>
+      <c r="O346" s="77"/>
+      <c r="P346" s="77"/>
+      <c r="Q346" s="77"/>
+      <c r="R346" s="77"/>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G347" s="77"/>
+      <c r="G347" s="88"/>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G348" s="77"/>
-      <c r="H348" s="84" t="s">
+      <c r="G348" s="88"/>
+      <c r="H348" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="I348" s="84" t="s">
+      <c r="I348" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="J348" s="84"/>
-      <c r="K348" s="84"/>
-      <c r="L348" s="84"/>
-      <c r="M348" s="84"/>
-      <c r="N348" s="84"/>
-      <c r="O348" s="84"/>
+      <c r="J348" s="77"/>
+      <c r="K348" s="77"/>
+      <c r="L348" s="77"/>
+      <c r="M348" s="77"/>
+      <c r="N348" s="77"/>
+      <c r="O348" s="77"/>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G349" s="77"/>
+      <c r="G349" s="88"/>
     </row>
     <row r="350" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="33">
@@ -6143,79 +6144,492 @@
       <c r="B350" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G350" s="78"/>
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G351" s="77"/>
+      <c r="G351" s="88"/>
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="G352" s="77"/>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G353" s="77"/>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G354" s="77"/>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G355" s="77"/>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G356" s="77"/>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G357" s="77"/>
-    </row>
-    <row r="358" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="33">
+      <c r="G352" s="88"/>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G353" s="88"/>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G354" s="88"/>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G355" s="88"/>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G356" s="88"/>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G357" s="88"/>
+    </row>
+    <row r="358" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="34">
         <v>18</v>
       </c>
       <c r="B358" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="G358" s="78"/>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G359" s="77"/>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G360" s="77"/>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G361" s="77"/>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G362" s="77"/>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G363" s="77"/>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G364" s="77"/>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G365" s="77"/>
-    </row>
-    <row r="366" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="33">
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G359" s="88"/>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F360" s="83"/>
+      <c r="G360" s="87"/>
+      <c r="I360" s="79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F361" s="83"/>
+      <c r="G361" s="87"/>
+      <c r="I361" s="79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F362" s="83"/>
+      <c r="G362" s="87"/>
+      <c r="I362" s="79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F363" s="83"/>
+      <c r="G363" s="87"/>
+    </row>
+    <row r="364" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="34">
         <v>19</v>
       </c>
-      <c r="B366" s="32" t="s">
+      <c r="B364" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G366" s="78"/>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G367" s="77"/>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G368" s="79"/>
-      <c r="H368" s="10"/>
-      <c r="I368" s="10"/>
-      <c r="J368" s="10"/>
-      <c r="K368" s="10"/>
-      <c r="L368" s="10"/>
-      <c r="M368" s="10"/>
+      <c r="F364" s="86"/>
+      <c r="G364" s="86"/>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F365" s="83"/>
+      <c r="G365" s="87"/>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F366" s="83"/>
+      <c r="G366" s="87"/>
+      <c r="H366" s="10"/>
+      <c r="I366" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="J366" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="K366" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="L366" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="M366" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="N366" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="O366" s="80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F367" s="83"/>
+      <c r="G367" s="87"/>
+      <c r="I367" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="J367" s="81">
+        <v>15000</v>
+      </c>
+      <c r="K367" s="81">
+        <v>1</v>
+      </c>
+      <c r="L367" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="M367" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="N367" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="O367" s="81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F368" s="83"/>
+      <c r="G368" s="87"/>
+      <c r="I368" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="J368" s="81">
+        <v>30000</v>
+      </c>
+      <c r="K368" s="81">
+        <v>1</v>
+      </c>
+      <c r="L368" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="M368" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="N368" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="O368" s="82">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="369" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I369" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="J369" s="81">
+        <v>60000</v>
+      </c>
+      <c r="K369" s="81">
+        <v>1</v>
+      </c>
+      <c r="L369" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="M369" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="N369" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="O369" s="81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="370" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I370" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="J370" s="81">
+        <v>17000</v>
+      </c>
+      <c r="K370" s="81">
+        <v>1</v>
+      </c>
+      <c r="L370" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="M370" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="N370" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="O370" s="82">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="371" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I371" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="J371" s="81">
+        <v>23000</v>
+      </c>
+      <c r="K371" s="81">
+        <v>1</v>
+      </c>
+      <c r="L371" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="M371" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="N371" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="O371" s="81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="372" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I372" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="J372" s="81">
+        <v>25000</v>
+      </c>
+      <c r="K372" s="81">
+        <v>2</v>
+      </c>
+      <c r="L372" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="M372" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="N372" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="O372" s="81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="373" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I373" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="J373" s="81">
+        <v>32000</v>
+      </c>
+      <c r="K373" s="81">
+        <v>2</v>
+      </c>
+      <c r="L373" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="M373" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="N373" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="O373" s="81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="374" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I374" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="J374" s="81">
+        <v>16000</v>
+      </c>
+      <c r="K374" s="81">
+        <v>2</v>
+      </c>
+      <c r="L374" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="M374" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="N374" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="O374" s="82">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="375" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I375" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="J375" s="81">
+        <v>20000</v>
+      </c>
+      <c r="K375" s="81">
+        <v>2</v>
+      </c>
+      <c r="L375" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="M375" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="N375" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="O375" s="82">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="376" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I376" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="J376" s="81">
+        <v>40000</v>
+      </c>
+      <c r="K376" s="81">
+        <v>2</v>
+      </c>
+      <c r="L376" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="M376" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="N376" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="O376" s="82">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="377" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I377" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="J377" s="81">
+        <v>17000</v>
+      </c>
+      <c r="K377" s="81">
+        <v>1</v>
+      </c>
+      <c r="L377" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="M377" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="N377" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="O377" s="82">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="379" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I379" s="83"/>
+      <c r="J379" s="83"/>
+      <c r="K379" s="83"/>
+      <c r="L379" s="83"/>
+      <c r="M379" s="83"/>
+      <c r="N379" s="83"/>
+      <c r="O379" s="83"/>
+      <c r="P379" s="83"/>
+      <c r="Q379" s="83"/>
+      <c r="R379" s="83"/>
+    </row>
+    <row r="380" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I380" s="83"/>
+      <c r="J380" s="83"/>
+      <c r="K380" s="83"/>
+      <c r="L380" s="83"/>
+      <c r="M380" s="83"/>
+      <c r="N380" s="83"/>
+      <c r="O380" s="83"/>
+      <c r="P380" s="83"/>
+      <c r="Q380" s="83"/>
+      <c r="R380" s="83"/>
+    </row>
+    <row r="381" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I381" s="83"/>
+      <c r="J381" s="83"/>
+      <c r="K381" s="83"/>
+      <c r="L381" s="83"/>
+      <c r="M381" s="83"/>
+      <c r="N381" s="83"/>
+      <c r="O381" s="84"/>
+      <c r="P381" s="84"/>
+      <c r="Q381" s="84"/>
+      <c r="R381" s="83"/>
+    </row>
+    <row r="382" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I382" s="83"/>
+      <c r="J382" s="84"/>
+      <c r="K382" s="84"/>
+      <c r="L382" s="84"/>
+      <c r="M382" s="83"/>
+      <c r="N382" s="83"/>
+      <c r="O382" s="83"/>
+      <c r="P382" s="83"/>
+      <c r="Q382" s="83"/>
+      <c r="R382" s="83"/>
+    </row>
+    <row r="383" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I383" s="83"/>
+      <c r="J383" s="83"/>
+      <c r="K383" s="83"/>
+      <c r="L383" s="83"/>
+      <c r="M383" s="83"/>
+      <c r="N383" s="83"/>
+      <c r="O383" s="83"/>
+      <c r="P383" s="83"/>
+      <c r="Q383" s="83"/>
+      <c r="R383" s="83"/>
+    </row>
+    <row r="384" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I384" s="83"/>
+      <c r="J384" s="83"/>
+      <c r="K384" s="83"/>
+      <c r="L384" s="83"/>
+      <c r="M384" s="83"/>
+      <c r="N384" s="83"/>
+      <c r="O384" s="83"/>
+      <c r="P384" s="83"/>
+      <c r="Q384" s="83"/>
+      <c r="R384" s="83"/>
+    </row>
+    <row r="385" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I385" s="83"/>
+      <c r="J385" s="83"/>
+      <c r="K385" s="83"/>
+      <c r="L385" s="83"/>
+      <c r="M385" s="83"/>
+      <c r="N385" s="83"/>
+      <c r="O385" s="83"/>
+      <c r="P385" s="83"/>
+      <c r="Q385" s="83"/>
+      <c r="R385" s="83"/>
+    </row>
+    <row r="386" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I386" s="83"/>
+      <c r="J386" s="83"/>
+      <c r="K386" s="83"/>
+      <c r="L386" s="83"/>
+      <c r="M386" s="83"/>
+      <c r="N386" s="83"/>
+      <c r="O386" s="84"/>
+      <c r="P386" s="84"/>
+      <c r="Q386" s="83"/>
+      <c r="R386" s="83"/>
+    </row>
+    <row r="387" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I387" s="83"/>
+      <c r="J387" s="83"/>
+      <c r="K387" s="83"/>
+      <c r="L387" s="83"/>
+      <c r="M387" s="83"/>
+      <c r="N387" s="83"/>
+      <c r="O387" s="83"/>
+      <c r="P387" s="85"/>
+      <c r="Q387" s="83"/>
+      <c r="R387" s="83"/>
+    </row>
+    <row r="388" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I388" s="83"/>
+      <c r="J388" s="83"/>
+      <c r="K388" s="83"/>
+      <c r="L388" s="83"/>
+      <c r="M388" s="83"/>
+      <c r="N388" s="83"/>
+      <c r="O388" s="83"/>
+      <c r="P388" s="85"/>
+      <c r="Q388" s="83"/>
+      <c r="R388" s="83"/>
+    </row>
+    <row r="389" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I389" s="83"/>
+      <c r="J389" s="83"/>
+      <c r="K389" s="83"/>
+      <c r="L389" s="83"/>
+      <c r="M389" s="83"/>
+      <c r="N389" s="83"/>
+      <c r="O389" s="83"/>
+      <c r="P389" s="83"/>
+      <c r="Q389" s="83"/>
+      <c r="R389" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
